--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>16083.77603968952</v>
+        <v>16083.77603968953</v>
       </c>
       <c r="C2">
         <v>24627.30073759698</v>
       </c>
       <c r="D2">
-        <v>44680.19521756966</v>
+        <v>44680.19521756964</v>
       </c>
       <c r="E2">
-        <v>65558.50900378278</v>
+        <v>65558.50900378275</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>16124.10768425632</v>
+        <v>16124.10768425631</v>
       </c>
       <c r="C3">
         <v>25195.08187056652</v>
@@ -425,13 +425,13 @@
         <v>13015.63303968305</v>
       </c>
       <c r="C4">
-        <v>21093.0814161088</v>
+        <v>21093.08141610882</v>
       </c>
       <c r="D4">
-        <v>41514.70159274086</v>
+        <v>41514.70159274085</v>
       </c>
       <c r="E4">
-        <v>62870.10772722011</v>
+        <v>62870.10772722006</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -442,13 +442,13 @@
         <v>13015.63303968305</v>
       </c>
       <c r="C5">
-        <v>21093.0814161088</v>
+        <v>21093.08141610882</v>
       </c>
       <c r="D5">
-        <v>41514.70159274086</v>
+        <v>41514.70159274085</v>
       </c>
       <c r="E5">
-        <v>62870.10772722011</v>
+        <v>62870.10772722006</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -459,13 +459,13 @@
         <v>13015.63303968305</v>
       </c>
       <c r="C6">
-        <v>21093.0814161088</v>
+        <v>21093.08141610882</v>
       </c>
       <c r="D6">
-        <v>41514.70159274086</v>
+        <v>41514.70159274085</v>
       </c>
       <c r="E6">
-        <v>62870.10772722011</v>
+        <v>62870.10772722006</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -476,7 +476,7 @@
         <v>15774.24585441638</v>
       </c>
       <c r="C7">
-        <v>24452.93775728445</v>
+        <v>24452.93775728446</v>
       </c>
       <c r="D7">
         <v>44963.35304873722</v>
@@ -493,7 +493,7 @@
         <v>15774.24585441638</v>
       </c>
       <c r="C8">
-        <v>24452.93775728445</v>
+        <v>24452.93775728446</v>
       </c>
       <c r="D8">
         <v>44963.35304873722</v>
@@ -510,13 +510,13 @@
         <v>15433.35335914093</v>
       </c>
       <c r="C9">
-        <v>23732.00897487284</v>
+        <v>23732.00897487283</v>
       </c>
       <c r="D9">
         <v>43686.70179149872</v>
       </c>
       <c r="E9">
-        <v>64747.38059286967</v>
+        <v>64747.38059286961</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -527,7 +527,7 @@
         <v>15774.24585441638</v>
       </c>
       <c r="C10">
-        <v>24452.93775728445</v>
+        <v>24452.93775728446</v>
       </c>
       <c r="D10">
         <v>44963.35304873722</v>
@@ -544,7 +544,7 @@
         <v>15774.24585441638</v>
       </c>
       <c r="C11">
-        <v>24452.93775728445</v>
+        <v>24452.93775728446</v>
       </c>
       <c r="D11">
         <v>44963.35304873722</v>
@@ -561,13 +561,13 @@
         <v>13015.63303968305</v>
       </c>
       <c r="C12">
-        <v>21093.0814161088</v>
+        <v>21093.08141610882</v>
       </c>
       <c r="D12">
-        <v>41514.70159274086</v>
+        <v>41514.70159274085</v>
       </c>
       <c r="E12">
-        <v>62870.10772722011</v>
+        <v>62870.10772722006</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>16124.10768425632</v>
+        <v>16124.10768425631</v>
       </c>
       <c r="C13">
         <v>25195.08187056652</v>
@@ -595,13 +595,13 @@
         <v>13015.63303968305</v>
       </c>
       <c r="C14">
-        <v>21093.0814161088</v>
+        <v>21093.08141610882</v>
       </c>
       <c r="D14">
-        <v>41514.70159274086</v>
+        <v>41514.70159274085</v>
       </c>
       <c r="E14">
-        <v>62870.10772722011</v>
+        <v>62870.10772722006</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -612,7 +612,7 @@
         <v>15774.24585441638</v>
       </c>
       <c r="C15">
-        <v>24452.93775728445</v>
+        <v>24452.93775728446</v>
       </c>
       <c r="D15">
         <v>44963.35304873722</v>
@@ -629,13 +629,13 @@
         <v>15717.65279602765</v>
       </c>
       <c r="C16">
-        <v>23870.639089508</v>
+        <v>23870.63908950799</v>
       </c>
       <c r="D16">
         <v>43378.10428414392</v>
       </c>
       <c r="E16">
-        <v>63748.5074492686</v>
+        <v>63748.50744926862</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -646,13 +646,13 @@
         <v>13015.63303968305</v>
       </c>
       <c r="C17">
-        <v>21093.0814161088</v>
+        <v>21093.08141610882</v>
       </c>
       <c r="D17">
-        <v>41514.70159274086</v>
+        <v>41514.70159274085</v>
       </c>
       <c r="E17">
-        <v>62870.10772722011</v>
+        <v>62870.10772722006</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -660,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>16124.10768425632</v>
+        <v>16124.10768425631</v>
       </c>
       <c r="C18">
         <v>25195.08187056652</v>
@@ -680,13 +680,13 @@
         <v>15717.65279602765</v>
       </c>
       <c r="C19">
-        <v>23870.639089508</v>
+        <v>23870.63908950799</v>
       </c>
       <c r="D19">
         <v>43378.10428414392</v>
       </c>
       <c r="E19">
-        <v>63748.5074492686</v>
+        <v>63748.50744926862</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -697,13 +697,13 @@
         <v>15717.65279602765</v>
       </c>
       <c r="C20">
-        <v>23870.639089508</v>
+        <v>23870.63908950799</v>
       </c>
       <c r="D20">
         <v>43378.10428414392</v>
       </c>
       <c r="E20">
-        <v>63748.5074492686</v>
+        <v>63748.50744926862</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -714,13 +714,13 @@
         <v>15717.65279602765</v>
       </c>
       <c r="C21">
-        <v>23870.639089508</v>
+        <v>23870.63908950799</v>
       </c>
       <c r="D21">
         <v>43378.10428414392</v>
       </c>
       <c r="E21">
-        <v>63748.5074492686</v>
+        <v>63748.50744926862</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -728,16 +728,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>20874.39011085504</v>
+        <v>20874.39011085505</v>
       </c>
       <c r="C22">
-        <v>31304.25753070706</v>
+        <v>31304.25753070707</v>
       </c>
       <c r="D22">
-        <v>53067.69623162352</v>
+        <v>53067.69623162353</v>
       </c>
       <c r="E22">
-        <v>75130.28214863021</v>
+        <v>75130.28214863018</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -745,16 +745,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>16083.77603968952</v>
+        <v>16083.77603968953</v>
       </c>
       <c r="C23">
         <v>24627.30073759698</v>
       </c>
       <c r="D23">
-        <v>44680.19521756966</v>
+        <v>44680.19521756964</v>
       </c>
       <c r="E23">
-        <v>65558.50900378278</v>
+        <v>65558.50900378275</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -762,16 +762,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>9965.663379643296</v>
+        <v>9965.663379643298</v>
       </c>
       <c r="C24">
         <v>16402.20274828386</v>
       </c>
       <c r="D24">
-        <v>34771.05486196014</v>
+        <v>34771.05486196015</v>
       </c>
       <c r="E24">
-        <v>53253.39949269829</v>
+        <v>53253.39949269826</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -779,16 +779,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>9965.663379643296</v>
+        <v>9965.663379643298</v>
       </c>
       <c r="C25">
         <v>16402.20274828386</v>
       </c>
       <c r="D25">
-        <v>34771.05486196014</v>
+        <v>34771.05486196015</v>
       </c>
       <c r="E25">
-        <v>53253.39949269829</v>
+        <v>53253.39949269826</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -796,16 +796,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>9965.663379643296</v>
+        <v>9965.663379643298</v>
       </c>
       <c r="C26">
         <v>16402.20274828386</v>
       </c>
       <c r="D26">
-        <v>34771.05486196014</v>
+        <v>34771.05486196015</v>
       </c>
       <c r="E26">
-        <v>53253.39949269829</v>
+        <v>53253.39949269826</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -816,13 +816,13 @@
         <v>16848.94173471395</v>
       </c>
       <c r="C27">
-        <v>24464.54406726278</v>
+        <v>24464.5440672628</v>
       </c>
       <c r="D27">
         <v>43459.4400739428</v>
       </c>
       <c r="E27">
-        <v>64221.00977165113</v>
+        <v>64221.00977165109</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -833,13 +833,13 @@
         <v>16848.94173471395</v>
       </c>
       <c r="C28">
-        <v>24464.54406726278</v>
+        <v>24464.5440672628</v>
       </c>
       <c r="D28">
         <v>43459.4400739428</v>
       </c>
       <c r="E28">
-        <v>64221.00977165113</v>
+        <v>64221.00977165109</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -850,13 +850,13 @@
         <v>16848.94173471395</v>
       </c>
       <c r="C29">
-        <v>24464.54406726278</v>
+        <v>24464.5440672628</v>
       </c>
       <c r="D29">
         <v>43459.4400739428</v>
       </c>
       <c r="E29">
-        <v>64221.00977165113</v>
+        <v>64221.00977165109</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -870,10 +870,10 @@
         <v>34571.99778338472</v>
       </c>
       <c r="D30">
-        <v>54797.9132265486</v>
+        <v>54797.91322654855</v>
       </c>
       <c r="E30">
-        <v>77614.84622489061</v>
+        <v>77614.84622489057</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -887,10 +887,10 @@
         <v>34571.99778338472</v>
       </c>
       <c r="D31">
-        <v>54797.9132265486</v>
+        <v>54797.91322654855</v>
       </c>
       <c r="E31">
-        <v>77614.84622489061</v>
+        <v>77614.84622489057</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -904,10 +904,10 @@
         <v>35453.72278066567</v>
       </c>
       <c r="D32">
-        <v>56103.97305399641</v>
+        <v>56103.9730539964</v>
       </c>
       <c r="E32">
-        <v>79065.42325349855</v>
+        <v>79065.42325349856</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -921,10 +921,10 @@
         <v>34571.99778338472</v>
       </c>
       <c r="D33">
-        <v>54797.9132265486</v>
+        <v>54797.91322654855</v>
       </c>
       <c r="E33">
-        <v>77614.84622489061</v>
+        <v>77614.84622489057</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -932,16 +932,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>32600.73315894566</v>
+        <v>32600.73315894567</v>
       </c>
       <c r="C34">
-        <v>40801.91138367965</v>
+        <v>40801.91138367968</v>
       </c>
       <c r="D34">
-        <v>60927.86342431753</v>
+        <v>60927.8634243175</v>
       </c>
       <c r="E34">
-        <v>83380.16308976673</v>
+        <v>83380.16308976681</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -952,13 +952,13 @@
         <v>34056.65493168491</v>
       </c>
       <c r="C35">
-        <v>42273.37522098067</v>
+        <v>42273.37522098066</v>
       </c>
       <c r="D35">
-        <v>62314.67751199388</v>
+        <v>62314.67751199389</v>
       </c>
       <c r="E35">
-        <v>84474.03832696167</v>
+        <v>84474.03832696169</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -969,13 +969,13 @@
         <v>22297.46044387982</v>
       </c>
       <c r="C36">
-        <v>30061.54667363606</v>
+        <v>30061.54667363607</v>
       </c>
       <c r="D36">
-        <v>51262.74263925871</v>
+        <v>51262.7426392587</v>
       </c>
       <c r="E36">
-        <v>75068.85344864329</v>
+        <v>75068.85344864332</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -986,13 +986,13 @@
         <v>27516.29479470668</v>
       </c>
       <c r="C37">
-        <v>35436.0733381789</v>
+        <v>35436.07333817891</v>
       </c>
       <c r="D37">
-        <v>55369.29175055007</v>
+        <v>55369.29175055011</v>
       </c>
       <c r="E37">
-        <v>77958.81213346566</v>
+        <v>77958.81213346565</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1003,13 +1003,13 @@
         <v>27516.29479470668</v>
       </c>
       <c r="C38">
-        <v>35436.0733381789</v>
+        <v>35436.07333817891</v>
       </c>
       <c r="D38">
-        <v>55369.29175055007</v>
+        <v>55369.29175055011</v>
       </c>
       <c r="E38">
-        <v>77958.81213346566</v>
+        <v>77958.81213346565</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1020,13 +1020,13 @@
         <v>32146.46357090966</v>
       </c>
       <c r="C39">
-        <v>39973.37419845621</v>
+        <v>39973.37419845625</v>
       </c>
       <c r="D39">
-        <v>59700.45290600044</v>
+        <v>59700.45290600049</v>
       </c>
       <c r="E39">
-        <v>82068.8226548855</v>
+        <v>82068.82265488549</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1037,13 +1037,13 @@
         <v>34056.65493168491</v>
       </c>
       <c r="C40">
-        <v>42273.37522098067</v>
+        <v>42273.37522098066</v>
       </c>
       <c r="D40">
-        <v>62314.67751199388</v>
+        <v>62314.67751199389</v>
       </c>
       <c r="E40">
-        <v>84474.03832696167</v>
+        <v>84474.03832696169</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1054,13 +1054,13 @@
         <v>34056.65493168491</v>
       </c>
       <c r="C41">
-        <v>42273.37522098067</v>
+        <v>42273.37522098066</v>
       </c>
       <c r="D41">
-        <v>62314.67751199388</v>
+        <v>62314.67751199389</v>
       </c>
       <c r="E41">
-        <v>84474.03832696167</v>
+        <v>84474.03832696169</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1077,7 +1077,7 @@
         <v>53844.12323007773</v>
       </c>
       <c r="E42">
-        <v>77158.13322521806</v>
+        <v>77158.1332252181</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1091,10 +1091,10 @@
         <v>33843.94084368974</v>
       </c>
       <c r="D43">
-        <v>55162.41127673895</v>
+        <v>55162.411276739</v>
       </c>
       <c r="E43">
-        <v>78613.56260772725</v>
+        <v>78613.56260772726</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1105,13 +1105,13 @@
         <v>24065.72017537866</v>
       </c>
       <c r="C44">
-        <v>33125.99682092897</v>
+        <v>33125.99682092899</v>
       </c>
       <c r="D44">
-        <v>54871.4456334773</v>
+        <v>54871.44563347729</v>
       </c>
       <c r="E44">
-        <v>78333.37803723097</v>
+        <v>78333.37803723093</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1122,13 +1122,13 @@
         <v>22042.13123055536</v>
       </c>
       <c r="C45">
-        <v>29875.83181867455</v>
+        <v>29875.83181867454</v>
       </c>
       <c r="D45">
         <v>50822.1871811177</v>
       </c>
       <c r="E45">
-        <v>74227.38583080916</v>
+        <v>74227.38583080913</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>36332.03737415178</v>
       </c>
       <c r="D46">
-        <v>56659.97873148605</v>
+        <v>56659.97873148608</v>
       </c>
       <c r="E46">
-        <v>79398.10249788802</v>
+        <v>79398.10249788797</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1153,10 +1153,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>22689.55551329893</v>
+        <v>22689.55551329894</v>
       </c>
       <c r="C47">
-        <v>30904.8503627523</v>
+        <v>30904.85036275231</v>
       </c>
       <c r="D47">
         <v>52580.29513632059</v>
@@ -1173,13 +1173,13 @@
         <v>22470.98527804977</v>
       </c>
       <c r="C48">
-        <v>30746.09537404019</v>
+        <v>30746.09537404018</v>
       </c>
       <c r="D48">
-        <v>52142.84889821593</v>
+        <v>52142.8488982159</v>
       </c>
       <c r="E48">
-        <v>75750.45844139515</v>
+        <v>75750.45844139514</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1190,13 +1190,13 @@
         <v>18020.26211547759</v>
       </c>
       <c r="C49">
-        <v>25562.8967411854</v>
+        <v>25562.89674118541</v>
       </c>
       <c r="D49">
-        <v>40601.82003251661</v>
+        <v>40601.82003251663</v>
       </c>
       <c r="E49">
-        <v>55998.31361003013</v>
+        <v>55998.31361003011</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1210,10 +1210,10 @@
         <v>24220.69009391247</v>
       </c>
       <c r="D50">
-        <v>39913.49095038786</v>
+        <v>39913.49095038785</v>
       </c>
       <c r="E50">
-        <v>56453.88015420118</v>
+        <v>56453.88015420119</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1224,13 +1224,13 @@
         <v>14154.15456445843</v>
       </c>
       <c r="C51">
-        <v>21344.417070109</v>
+        <v>21344.41707010901</v>
       </c>
       <c r="D51">
         <v>36740.71969587661</v>
       </c>
       <c r="E51">
-        <v>51426.60657166303</v>
+        <v>51426.60657166301</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1241,13 +1241,13 @@
         <v>15251.98376195254</v>
       </c>
       <c r="C52">
-        <v>22979.14393667856</v>
+        <v>22979.14393667855</v>
       </c>
       <c r="D52">
-        <v>38821.86237178337</v>
+        <v>38821.86237178338</v>
       </c>
       <c r="E52">
-        <v>54395.96451161997</v>
+        <v>54395.96451161999</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1258,13 +1258,13 @@
         <v>14689.71943207278</v>
       </c>
       <c r="C53">
-        <v>21693.85437975187</v>
+        <v>21693.85437975188</v>
       </c>
       <c r="D53">
-        <v>36937.48068554057</v>
+        <v>36937.48068554059</v>
       </c>
       <c r="E53">
-        <v>51823.71235105358</v>
+        <v>51823.71235105359</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1278,10 +1278,10 @@
         <v>20739.50373738637</v>
       </c>
       <c r="D54">
-        <v>35721.03194146566</v>
+        <v>35721.03194146565</v>
       </c>
       <c r="E54">
-        <v>49861.96614542248</v>
+        <v>49861.96614542246</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1295,10 +1295,10 @@
         <v>24220.69009391247</v>
       </c>
       <c r="D55">
-        <v>39913.49095038786</v>
+        <v>39913.49095038785</v>
       </c>
       <c r="E55">
-        <v>56453.88015420118</v>
+        <v>56453.88015420119</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1306,16 +1306,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>20583.95517388306</v>
+        <v>20583.95517388305</v>
       </c>
       <c r="C56">
-        <v>28656.80275031619</v>
+        <v>28656.80275031618</v>
       </c>
       <c r="D56">
-        <v>44570.39957969232</v>
+        <v>44570.39957969231</v>
       </c>
       <c r="E56">
-        <v>61476.1176158766</v>
+        <v>61476.11761587658</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1326,13 +1326,13 @@
         <v>13912.81203782392</v>
       </c>
       <c r="C57">
-        <v>21232.64838254481</v>
+        <v>21232.64838254482</v>
       </c>
       <c r="D57">
         <v>37710.04254638919</v>
       </c>
       <c r="E57">
-        <v>54214.34846100943</v>
+        <v>54214.34846100946</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1340,16 +1340,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>19436.67089816655</v>
+        <v>19436.67089816656</v>
       </c>
       <c r="C58">
-        <v>26354.98402090424</v>
+        <v>26354.98402090423</v>
       </c>
       <c r="D58">
-        <v>42928.08223175546</v>
+        <v>42928.08223175545</v>
       </c>
       <c r="E58">
-        <v>61668.28380320023</v>
+        <v>61668.2838032002</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1357,16 +1357,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>19436.67089816655</v>
+        <v>19436.67089816656</v>
       </c>
       <c r="C59">
-        <v>26354.98402090424</v>
+        <v>26354.98402090423</v>
       </c>
       <c r="D59">
-        <v>42928.08223175546</v>
+        <v>42928.08223175545</v>
       </c>
       <c r="E59">
-        <v>61668.28380320023</v>
+        <v>61668.2838032002</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1380,10 +1380,10 @@
         <v>16974.58238017059</v>
       </c>
       <c r="D60">
-        <v>33668.75578639772</v>
+        <v>33668.75578639773</v>
       </c>
       <c r="E60">
-        <v>50852.25575121285</v>
+        <v>50852.25575121286</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1397,10 +1397,10 @@
         <v>16974.58238017059</v>
       </c>
       <c r="D61">
-        <v>33668.75578639772</v>
+        <v>33668.75578639773</v>
       </c>
       <c r="E61">
-        <v>50852.25575121285</v>
+        <v>50852.25575121286</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1408,13 +1408,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>5524.905750723757</v>
+        <v>5524.905750723756</v>
       </c>
       <c r="C62">
         <v>10557.63556674315</v>
       </c>
       <c r="D62">
-        <v>28562.11094274657</v>
+        <v>28562.11094274659</v>
       </c>
       <c r="E62">
         <v>47001.74697325234</v>
@@ -1425,13 +1425,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>5524.905750723757</v>
+        <v>5524.905750723756</v>
       </c>
       <c r="C63">
         <v>10557.63556674315</v>
       </c>
       <c r="D63">
-        <v>28562.11094274657</v>
+        <v>28562.11094274659</v>
       </c>
       <c r="E63">
         <v>47001.74697325234</v>
@@ -1442,16 +1442,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>3936.713299051826</v>
+        <v>3936.713299051828</v>
       </c>
       <c r="C64">
-        <v>8726.286263016795</v>
+        <v>8726.286263016793</v>
       </c>
       <c r="D64">
-        <v>26268.52413938355</v>
+        <v>26268.52413938353</v>
       </c>
       <c r="E64">
-        <v>43976.68173686521</v>
+        <v>43976.68173686517</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1459,16 +1459,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>3936.713299051826</v>
+        <v>3936.713299051828</v>
       </c>
       <c r="C65">
-        <v>8726.286263016795</v>
+        <v>8726.286263016793</v>
       </c>
       <c r="D65">
-        <v>26268.52413938355</v>
+        <v>26268.52413938353</v>
       </c>
       <c r="E65">
-        <v>43976.68173686521</v>
+        <v>43976.68173686517</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1482,10 +1482,10 @@
         <v>25405.38337860006</v>
       </c>
       <c r="D66">
-        <v>47539.27471927679</v>
+        <v>47539.27471927681</v>
       </c>
       <c r="E66">
-        <v>71763.06486421656</v>
+        <v>71763.06486421659</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1499,10 +1499,10 @@
         <v>26221.8446255736</v>
       </c>
       <c r="D67">
-        <v>48885.34246565361</v>
+        <v>48885.34246565364</v>
       </c>
       <c r="E67">
-        <v>73397.76251732757</v>
+        <v>73397.76251732756</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1516,10 +1516,10 @@
         <v>25405.38337860006</v>
       </c>
       <c r="D68">
-        <v>47539.27471927679</v>
+        <v>47539.27471927681</v>
       </c>
       <c r="E68">
-        <v>71763.06486421656</v>
+        <v>71763.06486421659</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1533,10 +1533,10 @@
         <v>26221.8446255736</v>
       </c>
       <c r="D69">
-        <v>48885.34246565361</v>
+        <v>48885.34246565364</v>
       </c>
       <c r="E69">
-        <v>73397.76251732757</v>
+        <v>73397.76251732756</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1550,10 +1550,10 @@
         <v>26221.8446255736</v>
       </c>
       <c r="D70">
-        <v>48885.34246565361</v>
+        <v>48885.34246565364</v>
       </c>
       <c r="E70">
-        <v>73397.76251732757</v>
+        <v>73397.76251732756</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1564,13 +1564,13 @@
         <v>19050.31417394392</v>
       </c>
       <c r="C71">
-        <v>28481.31299840988</v>
+        <v>28481.31299840989</v>
       </c>
       <c r="D71">
-        <v>51915.74822281655</v>
+        <v>51915.74822281656</v>
       </c>
       <c r="E71">
-        <v>76533.70842002706</v>
+        <v>76533.70842002708</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1584,10 +1584,10 @@
         <v>26221.8446255736</v>
       </c>
       <c r="D72">
-        <v>48885.34246565361</v>
+        <v>48885.34246565364</v>
       </c>
       <c r="E72">
-        <v>73397.76251732757</v>
+        <v>73397.76251732756</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1601,10 +1601,10 @@
         <v>26221.8446255736</v>
       </c>
       <c r="D73">
-        <v>48885.34246565361</v>
+        <v>48885.34246565364</v>
       </c>
       <c r="E73">
-        <v>73397.76251732757</v>
+        <v>73397.76251732756</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1618,10 +1618,10 @@
         <v>26221.8446255736</v>
       </c>
       <c r="D74">
-        <v>48885.34246565361</v>
+        <v>48885.34246565364</v>
       </c>
       <c r="E74">
-        <v>73397.76251732757</v>
+        <v>73397.76251732756</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1632,13 +1632,13 @@
         <v>12659.02119414747</v>
       </c>
       <c r="C75">
-        <v>19462.74315008952</v>
+        <v>19462.74315008951</v>
       </c>
       <c r="D75">
         <v>39940.20298224673</v>
       </c>
       <c r="E75">
-        <v>63375.92506757603</v>
+        <v>63375.9250675761</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1652,10 +1652,10 @@
         <v>26221.8446255736</v>
       </c>
       <c r="D76">
-        <v>48885.34246565361</v>
+        <v>48885.34246565364</v>
       </c>
       <c r="E76">
-        <v>73397.76251732757</v>
+        <v>73397.76251732756</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1663,13 +1663,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>16749.00260652917</v>
+        <v>16749.00260652916</v>
       </c>
       <c r="C77">
         <v>25221.99329762551</v>
       </c>
       <c r="D77">
-        <v>47987.45646805163</v>
+        <v>47987.45646805166</v>
       </c>
       <c r="E77">
         <v>72762.98830858858</v>
@@ -1680,13 +1680,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>16749.00260652917</v>
+        <v>16749.00260652916</v>
       </c>
       <c r="C78">
         <v>25221.99329762551</v>
       </c>
       <c r="D78">
-        <v>47987.45646805163</v>
+        <v>47987.45646805166</v>
       </c>
       <c r="E78">
         <v>72762.98830858858</v>
@@ -1697,13 +1697,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>16749.00260652917</v>
+        <v>16749.00260652916</v>
       </c>
       <c r="C79">
         <v>25221.99329762551</v>
       </c>
       <c r="D79">
-        <v>47987.45646805163</v>
+        <v>47987.45646805166</v>
       </c>
       <c r="E79">
         <v>72762.98830858858</v>
@@ -1714,13 +1714,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>16749.00260652917</v>
+        <v>16749.00260652916</v>
       </c>
       <c r="C80">
         <v>25221.99329762551</v>
       </c>
       <c r="D80">
-        <v>47987.45646805163</v>
+        <v>47987.45646805166</v>
       </c>
       <c r="E80">
         <v>72762.98830858858</v>
@@ -1731,16 +1731,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>25115.73551302751</v>
+        <v>25115.73551302749</v>
       </c>
       <c r="C81">
-        <v>33749.5554772017</v>
+        <v>33749.55547720171</v>
       </c>
       <c r="D81">
-        <v>54647.32624013886</v>
+        <v>54647.32624013885</v>
       </c>
       <c r="E81">
-        <v>77178.29921819628</v>
+        <v>77178.29921819632</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1748,16 +1748,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>25115.73551302751</v>
+        <v>25115.73551302749</v>
       </c>
       <c r="C82">
-        <v>33749.5554772017</v>
+        <v>33749.55547720171</v>
       </c>
       <c r="D82">
-        <v>54647.32624013886</v>
+        <v>54647.32624013885</v>
       </c>
       <c r="E82">
-        <v>77178.29921819628</v>
+        <v>77178.29921819632</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1768,13 +1768,13 @@
         <v>16708.91618115587</v>
       </c>
       <c r="C83">
-        <v>23779.1957113187</v>
+        <v>23779.19571131869</v>
       </c>
       <c r="D83">
-        <v>43897.56477840831</v>
+        <v>43897.56477840828</v>
       </c>
       <c r="E83">
-        <v>66290.95202284788</v>
+        <v>66290.95202284791</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1785,13 +1785,13 @@
         <v>16708.91618115587</v>
       </c>
       <c r="C84">
-        <v>23779.1957113187</v>
+        <v>23779.19571131869</v>
       </c>
       <c r="D84">
-        <v>43897.56477840831</v>
+        <v>43897.56477840828</v>
       </c>
       <c r="E84">
-        <v>66290.95202284788</v>
+        <v>66290.95202284791</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1799,13 +1799,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>26639.6395559187</v>
+        <v>26639.63955591869</v>
       </c>
       <c r="C85">
         <v>35348.51675969789</v>
       </c>
       <c r="D85">
-        <v>55398.4803748598</v>
+        <v>55398.48037485976</v>
       </c>
       <c r="E85">
         <v>77290.4169815255</v>
@@ -1816,13 +1816,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>26639.6395559187</v>
+        <v>26639.63955591869</v>
       </c>
       <c r="C86">
         <v>35348.51675969789</v>
       </c>
       <c r="D86">
-        <v>55398.4803748598</v>
+        <v>55398.48037485976</v>
       </c>
       <c r="E86">
         <v>77290.4169815255</v>
@@ -1833,16 +1833,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>25597.05493361333</v>
+        <v>25597.05493361334</v>
       </c>
       <c r="C87">
-        <v>34847.0592187026</v>
+        <v>34847.05921870262</v>
       </c>
       <c r="D87">
-        <v>56210.19774647052</v>
+        <v>56210.19774647054</v>
       </c>
       <c r="E87">
-        <v>78601.00014615766</v>
+        <v>78601.0001461576</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1850,16 +1850,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>25597.05493361333</v>
+        <v>25597.05493361334</v>
       </c>
       <c r="C88">
-        <v>34847.0592187026</v>
+        <v>34847.05921870262</v>
       </c>
       <c r="D88">
-        <v>56210.19774647052</v>
+        <v>56210.19774647054</v>
       </c>
       <c r="E88">
-        <v>78601.00014615766</v>
+        <v>78601.0001461576</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1867,16 +1867,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>25597.05493361333</v>
+        <v>25597.05493361334</v>
       </c>
       <c r="C89">
-        <v>34847.0592187026</v>
+        <v>34847.05921870262</v>
       </c>
       <c r="D89">
-        <v>56210.19774647052</v>
+        <v>56210.19774647054</v>
       </c>
       <c r="E89">
-        <v>78601.00014615766</v>
+        <v>78601.0001461576</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1884,16 +1884,16 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>51203.92352489264</v>
+        <v>51203.92352489263</v>
       </c>
       <c r="C90">
-        <v>59729.28906452683</v>
+        <v>59729.28906452685</v>
       </c>
       <c r="D90">
         <v>76436.81547117933</v>
       </c>
       <c r="E90">
-        <v>93649.13356811431</v>
+        <v>93649.13356811432</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1901,16 +1901,16 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>51203.92352489264</v>
+        <v>51203.92352489263</v>
       </c>
       <c r="C91">
-        <v>59729.28906452683</v>
+        <v>59729.28906452685</v>
       </c>
       <c r="D91">
         <v>76436.81547117933</v>
       </c>
       <c r="E91">
-        <v>93649.13356811431</v>
+        <v>93649.13356811432</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1918,16 +1918,16 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>51203.92352489264</v>
+        <v>51203.92352489263</v>
       </c>
       <c r="C92">
-        <v>59729.28906452683</v>
+        <v>59729.28906452685</v>
       </c>
       <c r="D92">
         <v>76436.81547117933</v>
       </c>
       <c r="E92">
-        <v>93649.13356811431</v>
+        <v>93649.13356811432</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1935,16 +1935,16 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>51203.92352489264</v>
+        <v>51203.92352489263</v>
       </c>
       <c r="C93">
-        <v>59729.28906452683</v>
+        <v>59729.28906452685</v>
       </c>
       <c r="D93">
         <v>76436.81547117933</v>
       </c>
       <c r="E93">
-        <v>93649.13356811431</v>
+        <v>93649.13356811432</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1952,7 +1952,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>52411.4521221746</v>
+        <v>52411.45212217458</v>
       </c>
       <c r="C94">
         <v>61614.89687375703</v>
@@ -1969,16 +1969,16 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>51203.92352489264</v>
+        <v>51203.92352489263</v>
       </c>
       <c r="C95">
-        <v>59729.28906452683</v>
+        <v>59729.28906452685</v>
       </c>
       <c r="D95">
         <v>76436.81547117933</v>
       </c>
       <c r="E95">
-        <v>93649.13356811431</v>
+        <v>93649.13356811432</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1986,16 +1986,16 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>51203.92352489264</v>
+        <v>51203.92352489263</v>
       </c>
       <c r="C96">
-        <v>59729.28906452683</v>
+        <v>59729.28906452685</v>
       </c>
       <c r="D96">
         <v>76436.81547117933</v>
       </c>
       <c r="E96">
-        <v>93649.13356811431</v>
+        <v>93649.13356811432</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2003,16 +2003,16 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>51203.92352489264</v>
+        <v>51203.92352489263</v>
       </c>
       <c r="C97">
-        <v>59729.28906452683</v>
+        <v>59729.28906452685</v>
       </c>
       <c r="D97">
         <v>76436.81547117933</v>
       </c>
       <c r="E97">
-        <v>93649.13356811431</v>
+        <v>93649.13356811432</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2023,13 +2023,13 @@
         <v>49705.61344736405</v>
       </c>
       <c r="C98">
-        <v>59157.00607660706</v>
+        <v>59157.00607660704</v>
       </c>
       <c r="D98">
         <v>77018.84494396902</v>
       </c>
       <c r="E98">
-        <v>94235.07250991545</v>
+        <v>94235.07250991548</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2040,13 +2040,13 @@
         <v>49705.61344736405</v>
       </c>
       <c r="C99">
-        <v>59157.00607660706</v>
+        <v>59157.00607660704</v>
       </c>
       <c r="D99">
         <v>77018.84494396902</v>
       </c>
       <c r="E99">
-        <v>94235.07250991545</v>
+        <v>94235.07250991548</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2054,16 +2054,16 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>50371.84070763232</v>
+        <v>50371.8407076323</v>
       </c>
       <c r="C100">
-        <v>58920.81374081532</v>
+        <v>58920.81374081531</v>
       </c>
       <c r="D100">
-        <v>76069.90991106104</v>
+        <v>76069.9099110611</v>
       </c>
       <c r="E100">
-        <v>93518.79892379267</v>
+        <v>93518.79892379268</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2071,16 +2071,16 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>50371.84070763232</v>
+        <v>50371.8407076323</v>
       </c>
       <c r="C101">
-        <v>58920.81374081532</v>
+        <v>58920.81374081531</v>
       </c>
       <c r="D101">
-        <v>76069.90991106104</v>
+        <v>76069.9099110611</v>
       </c>
       <c r="E101">
-        <v>93518.79892379267</v>
+        <v>93518.79892379268</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2088,16 +2088,16 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>50371.84070763232</v>
+        <v>50371.8407076323</v>
       </c>
       <c r="C102">
-        <v>58920.81374081532</v>
+        <v>58920.81374081531</v>
       </c>
       <c r="D102">
-        <v>76069.90991106104</v>
+        <v>76069.9099110611</v>
       </c>
       <c r="E102">
-        <v>93518.79892379267</v>
+        <v>93518.79892379268</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2105,13 +2105,13 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>47395.04742601758</v>
+        <v>47395.04742601761</v>
       </c>
       <c r="C103">
-        <v>57197.60778051714</v>
+        <v>57197.60778051715</v>
       </c>
       <c r="D103">
-        <v>75832.15091884299</v>
+        <v>75832.15091884301</v>
       </c>
       <c r="E103">
         <v>93452.20194713479</v>
@@ -2122,13 +2122,13 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>47395.04742601758</v>
+        <v>47395.04742601761</v>
       </c>
       <c r="C104">
-        <v>57197.60778051714</v>
+        <v>57197.60778051715</v>
       </c>
       <c r="D104">
-        <v>75832.15091884299</v>
+        <v>75832.15091884301</v>
       </c>
       <c r="E104">
         <v>93452.20194713479</v>
@@ -2139,16 +2139,16 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>47836.94067888991</v>
+        <v>47836.9406788899</v>
       </c>
       <c r="C105">
-        <v>57220.75504177513</v>
+        <v>57220.7550417751</v>
       </c>
       <c r="D105">
-        <v>75884.88418554458</v>
+        <v>75884.88418554461</v>
       </c>
       <c r="E105">
-        <v>93728.55096840938</v>
+        <v>93728.55096840941</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2156,16 +2156,16 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>48668.74150379271</v>
+        <v>48668.74150379273</v>
       </c>
       <c r="C106">
         <v>59466.27670849975</v>
       </c>
       <c r="D106">
-        <v>78350.24243152316</v>
+        <v>78350.24243152312</v>
       </c>
       <c r="E106">
-        <v>95395.94915324004</v>
+        <v>95395.94915324009</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2173,16 +2173,16 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>48668.74150379271</v>
+        <v>48668.74150379273</v>
       </c>
       <c r="C107">
         <v>59466.27670849975</v>
       </c>
       <c r="D107">
-        <v>78350.24243152316</v>
+        <v>78350.24243152312</v>
       </c>
       <c r="E107">
-        <v>95395.94915324004</v>
+        <v>95395.94915324009</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2193,13 +2193,13 @@
         <v>49035.70813496806</v>
       </c>
       <c r="C108">
-        <v>59427.7170530495</v>
+        <v>59427.71705304943</v>
       </c>
       <c r="D108">
-        <v>78368.20530308221</v>
+        <v>78368.20530308218</v>
       </c>
       <c r="E108">
-        <v>95629.84411367803</v>
+        <v>95629.84411367806</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2207,16 +2207,16 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>46836.15184062011</v>
+        <v>46836.15184062008</v>
       </c>
       <c r="C109">
-        <v>56552.46878350467</v>
+        <v>56552.46878350469</v>
       </c>
       <c r="D109">
-        <v>75136.44336005574</v>
+        <v>75136.44336005569</v>
       </c>
       <c r="E109">
-        <v>92890.7500084702</v>
+        <v>92890.75000847029</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2224,16 +2224,16 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>46836.15184062011</v>
+        <v>46836.15184062008</v>
       </c>
       <c r="C110">
-        <v>56552.46878350467</v>
+        <v>56552.46878350469</v>
       </c>
       <c r="D110">
-        <v>75136.44336005574</v>
+        <v>75136.44336005569</v>
       </c>
       <c r="E110">
-        <v>92890.7500084702</v>
+        <v>92890.75000847029</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2241,16 +2241,16 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>46836.15184062011</v>
+        <v>46836.15184062008</v>
       </c>
       <c r="C111">
-        <v>56552.46878350467</v>
+        <v>56552.46878350469</v>
       </c>
       <c r="D111">
-        <v>75136.44336005574</v>
+        <v>75136.44336005569</v>
       </c>
       <c r="E111">
-        <v>92890.7500084702</v>
+        <v>92890.75000847029</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2261,13 +2261,13 @@
         <v>47955.33617293542</v>
       </c>
       <c r="C112">
-        <v>57961.48933945275</v>
+        <v>57961.48933945272</v>
       </c>
       <c r="D112">
         <v>76418.67674457763</v>
       </c>
       <c r="E112">
-        <v>93788.23512241662</v>
+        <v>93788.23512241665</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2275,16 +2275,16 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>45554.03837774742</v>
+        <v>45554.03837774741</v>
       </c>
       <c r="C113">
-        <v>55206.29441749197</v>
+        <v>55206.29441749195</v>
       </c>
       <c r="D113">
-        <v>74241.9812337077</v>
+        <v>74241.98123370777</v>
       </c>
       <c r="E113">
-        <v>92372.17625265123</v>
+        <v>92372.17625265119</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2292,10 +2292,10 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>46184.91790423774</v>
+        <v>46184.91790423772</v>
       </c>
       <c r="C114">
-        <v>56337.60745270464</v>
+        <v>56337.6074527046</v>
       </c>
       <c r="D114">
         <v>75555.7012798272</v>
@@ -2312,13 +2312,13 @@
         <v>47955.33617293542</v>
       </c>
       <c r="C115">
-        <v>57961.48933945275</v>
+        <v>57961.48933945272</v>
       </c>
       <c r="D115">
         <v>76418.67674457763</v>
       </c>
       <c r="E115">
-        <v>93788.23512241662</v>
+        <v>93788.23512241665</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2329,13 +2329,13 @@
         <v>47955.33617293542</v>
       </c>
       <c r="C116">
-        <v>57961.48933945275</v>
+        <v>57961.48933945272</v>
       </c>
       <c r="D116">
         <v>76418.67674457763</v>
       </c>
       <c r="E116">
-        <v>93788.23512241662</v>
+        <v>93788.23512241665</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2343,16 +2343,16 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>45554.03837774742</v>
+        <v>45554.03837774741</v>
       </c>
       <c r="C117">
-        <v>55206.29441749197</v>
+        <v>55206.29441749195</v>
       </c>
       <c r="D117">
-        <v>74241.9812337077</v>
+        <v>74241.98123370777</v>
       </c>
       <c r="E117">
-        <v>92372.17625265123</v>
+        <v>92372.17625265119</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2360,16 +2360,16 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>46833.30858368925</v>
+        <v>46833.30858368924</v>
       </c>
       <c r="C118">
-        <v>57474.34511702971</v>
+        <v>57474.3451170297</v>
       </c>
       <c r="D118">
-        <v>76841.4277130343</v>
+        <v>76841.42771303428</v>
       </c>
       <c r="E118">
-        <v>94416.42426512962</v>
+        <v>94416.42426512965</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2377,16 +2377,16 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>43709.29127218922</v>
+        <v>43709.29127218923</v>
       </c>
       <c r="C119">
-        <v>53078.34856784126</v>
+        <v>53078.34856784125</v>
       </c>
       <c r="D119">
-        <v>72245.49248206412</v>
+        <v>72245.4924820641</v>
       </c>
       <c r="E119">
-        <v>91019.17096320586</v>
+        <v>91019.17096320591</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2394,16 +2394,16 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>50256.19680474016</v>
+        <v>50256.19680474015</v>
       </c>
       <c r="C120">
-        <v>59378.82337025306</v>
+        <v>59378.82337025305</v>
       </c>
       <c r="D120">
         <v>76580.61286748412</v>
       </c>
       <c r="E120">
-        <v>93672.08832284214</v>
+        <v>93672.08832284213</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2411,16 +2411,16 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>50256.19680474016</v>
+        <v>50256.19680474015</v>
       </c>
       <c r="C121">
-        <v>59378.82337025306</v>
+        <v>59378.82337025305</v>
       </c>
       <c r="D121">
         <v>76580.61286748412</v>
       </c>
       <c r="E121">
-        <v>93672.08832284214</v>
+        <v>93672.08832284213</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2428,16 +2428,16 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>49025.653776021</v>
+        <v>49025.65377602099</v>
       </c>
       <c r="C122">
-        <v>58432.23993980727</v>
+        <v>58432.23993980725</v>
       </c>
       <c r="D122">
         <v>75917.73567299127</v>
       </c>
       <c r="E122">
-        <v>93074.98585080689</v>
+        <v>93074.98585080687</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2445,16 +2445,16 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>49025.653776021</v>
+        <v>49025.65377602099</v>
       </c>
       <c r="C123">
-        <v>58432.23993980727</v>
+        <v>58432.23993980725</v>
       </c>
       <c r="D123">
         <v>75917.73567299127</v>
       </c>
       <c r="E123">
-        <v>93074.98585080689</v>
+        <v>93074.98585080687</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2462,16 +2462,16 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>49025.653776021</v>
+        <v>49025.65377602099</v>
       </c>
       <c r="C124">
-        <v>58432.23993980727</v>
+        <v>58432.23993980725</v>
       </c>
       <c r="D124">
         <v>75917.73567299127</v>
       </c>
       <c r="E124">
-        <v>93074.98585080689</v>
+        <v>93074.98585080687</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2479,16 +2479,16 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>48715.7165573692</v>
+        <v>48715.71655736922</v>
       </c>
       <c r="C125">
-        <v>58426.60439348414</v>
+        <v>58426.60439348415</v>
       </c>
       <c r="D125">
-        <v>75684.24886659498</v>
+        <v>75684.24886659499</v>
       </c>
       <c r="E125">
-        <v>92461.83037586542</v>
+        <v>92461.83037586541</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2496,16 +2496,16 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>49335.76590922553</v>
+        <v>49335.76590922551</v>
       </c>
       <c r="C126">
-        <v>59545.08941556959</v>
+        <v>59545.0894155696</v>
       </c>
       <c r="D126">
         <v>76952.27759761392</v>
       </c>
       <c r="E126">
-        <v>93511.88171314835</v>
+        <v>93511.88171314837</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2513,13 +2513,13 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>51744.23540405781</v>
+        <v>51744.23540405779</v>
       </c>
       <c r="C127">
-        <v>62246.23481751433</v>
+        <v>62246.23481751437</v>
       </c>
       <c r="D127">
-        <v>79175.3941162874</v>
+        <v>79175.39411628743</v>
       </c>
       <c r="E127">
         <v>95277.93195010818</v>
@@ -2530,16 +2530,16 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>50700.1529713123</v>
+        <v>50700.15297131227</v>
       </c>
       <c r="C128">
-        <v>60137.2840159447</v>
+        <v>60137.28401594475</v>
       </c>
       <c r="D128">
-        <v>77007.13811255016</v>
+        <v>77007.13811255012</v>
       </c>
       <c r="E128">
-        <v>93914.36671876167</v>
+        <v>93914.36671876164</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2547,16 +2547,16 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>50700.1529713123</v>
+        <v>50700.15297131227</v>
       </c>
       <c r="C129">
-        <v>60137.2840159447</v>
+        <v>60137.28401594475</v>
       </c>
       <c r="D129">
-        <v>77007.13811255016</v>
+        <v>77007.13811255012</v>
       </c>
       <c r="E129">
-        <v>93914.36671876167</v>
+        <v>93914.36671876164</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2564,16 +2564,16 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>51103.64692232603</v>
+        <v>51103.64692232604</v>
       </c>
       <c r="C130">
-        <v>59384.48431721243</v>
+        <v>59384.48431721245</v>
       </c>
       <c r="D130">
-        <v>75685.06439210848</v>
+        <v>75685.06439210853</v>
       </c>
       <c r="E130">
-        <v>92968.79398431601</v>
+        <v>92968.79398431603</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2581,16 +2581,16 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>51103.64692232603</v>
+        <v>51103.64692232604</v>
       </c>
       <c r="C131">
-        <v>59384.48431721243</v>
+        <v>59384.48431721245</v>
       </c>
       <c r="D131">
-        <v>75685.06439210848</v>
+        <v>75685.06439210853</v>
       </c>
       <c r="E131">
-        <v>92968.79398431601</v>
+        <v>92968.79398431603</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2598,16 +2598,16 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>51103.64692232603</v>
+        <v>51103.64692232604</v>
       </c>
       <c r="C132">
-        <v>59384.48431721243</v>
+        <v>59384.48431721245</v>
       </c>
       <c r="D132">
-        <v>75685.06439210848</v>
+        <v>75685.06439210853</v>
       </c>
       <c r="E132">
-        <v>92968.79398431601</v>
+        <v>92968.79398431603</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2615,16 +2615,16 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>51103.64692232603</v>
+        <v>51103.64692232604</v>
       </c>
       <c r="C133">
-        <v>59384.48431721243</v>
+        <v>59384.48431721245</v>
       </c>
       <c r="D133">
-        <v>75685.06439210848</v>
+        <v>75685.06439210853</v>
       </c>
       <c r="E133">
-        <v>92968.79398431601</v>
+        <v>92968.79398431603</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2632,10 +2632,10 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>51847.65726290001</v>
+        <v>51847.65726289998</v>
       </c>
       <c r="C134">
-        <v>60622.55480150145</v>
+        <v>60622.55480150144</v>
       </c>
       <c r="D134">
         <v>76850.60801277049</v>
@@ -2652,7 +2652,7 @@
         <v>50206.84568130796</v>
       </c>
       <c r="C135">
-        <v>58338.60449223468</v>
+        <v>58338.60449223471</v>
       </c>
       <c r="D135">
         <v>74735.08013672166</v>
@@ -2669,13 +2669,13 @@
         <v>49858.52221033885</v>
       </c>
       <c r="C136">
-        <v>57880.60073797839</v>
+        <v>57880.60073797841</v>
       </c>
       <c r="D136">
-        <v>74322.6359800387</v>
+        <v>74322.63598003871</v>
       </c>
       <c r="E136">
-        <v>91937.32611897965</v>
+        <v>91937.32611897962</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2686,13 +2686,13 @@
         <v>49858.52221033885</v>
       </c>
       <c r="C137">
-        <v>57880.60073797839</v>
+        <v>57880.60073797841</v>
       </c>
       <c r="D137">
-        <v>74322.6359800387</v>
+        <v>74322.63598003871</v>
       </c>
       <c r="E137">
-        <v>91937.32611897965</v>
+        <v>91937.32611897962</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2703,13 +2703,13 @@
         <v>49858.52221033885</v>
       </c>
       <c r="C138">
-        <v>57880.60073797839</v>
+        <v>57880.60073797841</v>
       </c>
       <c r="D138">
-        <v>74322.6359800387</v>
+        <v>74322.63598003871</v>
       </c>
       <c r="E138">
-        <v>91937.32611897965</v>
+        <v>91937.32611897962</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2717,16 +2717,16 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>49393.22595161404</v>
+        <v>49393.22595161403</v>
       </c>
       <c r="C139">
-        <v>57539.63573071151</v>
+        <v>57539.63573071153</v>
       </c>
       <c r="D139">
-        <v>74117.76538000218</v>
+        <v>74117.76538000219</v>
       </c>
       <c r="E139">
-        <v>91642.19471805095</v>
+        <v>91642.19471805096</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2734,16 +2734,16 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>47543.71384317768</v>
+        <v>47543.71384317769</v>
       </c>
       <c r="C140">
-        <v>56093.81090009098</v>
+        <v>56093.810900091</v>
       </c>
       <c r="D140">
-        <v>73407.51312678025</v>
+        <v>73407.51312678026</v>
       </c>
       <c r="E140">
-        <v>91725.05851030617</v>
+        <v>91725.05851030613</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2751,16 +2751,16 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>49393.22595161404</v>
+        <v>49393.22595161403</v>
       </c>
       <c r="C141">
-        <v>57539.63573071151</v>
+        <v>57539.63573071153</v>
       </c>
       <c r="D141">
-        <v>74117.76538000218</v>
+        <v>74117.76538000219</v>
       </c>
       <c r="E141">
-        <v>91642.19471805095</v>
+        <v>91642.19471805096</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2768,16 +2768,16 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>49393.22595161404</v>
+        <v>49393.22595161403</v>
       </c>
       <c r="C142">
-        <v>57539.63573071151</v>
+        <v>57539.63573071153</v>
       </c>
       <c r="D142">
-        <v>74117.76538000218</v>
+        <v>74117.76538000219</v>
       </c>
       <c r="E142">
-        <v>91642.19471805095</v>
+        <v>91642.19471805096</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2785,16 +2785,16 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>49598.9735951207</v>
+        <v>49598.97359512068</v>
       </c>
       <c r="C143">
-        <v>58167.00633416032</v>
+        <v>58167.00633416035</v>
       </c>
       <c r="D143">
-        <v>74672.4485478503</v>
+        <v>74672.44854785029</v>
       </c>
       <c r="E143">
-        <v>91909.22754326409</v>
+        <v>91909.22754326407</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2802,16 +2802,16 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>49598.9735951207</v>
+        <v>49598.97359512068</v>
       </c>
       <c r="C144">
-        <v>58167.00633416032</v>
+        <v>58167.00633416035</v>
       </c>
       <c r="D144">
-        <v>74672.4485478503</v>
+        <v>74672.44854785029</v>
       </c>
       <c r="E144">
-        <v>91909.22754326409</v>
+        <v>91909.22754326407</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2819,16 +2819,16 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>49598.9735951207</v>
+        <v>49598.97359512068</v>
       </c>
       <c r="C145">
-        <v>58167.00633416032</v>
+        <v>58167.00633416035</v>
       </c>
       <c r="D145">
-        <v>74672.4485478503</v>
+        <v>74672.44854785029</v>
       </c>
       <c r="E145">
-        <v>91909.22754326409</v>
+        <v>91909.22754326407</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2836,16 +2836,16 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>50700.1529713123</v>
+        <v>50700.15297131227</v>
       </c>
       <c r="C146">
-        <v>60137.2840159447</v>
+        <v>60137.28401594475</v>
       </c>
       <c r="D146">
-        <v>77007.13811255016</v>
+        <v>77007.13811255012</v>
       </c>
       <c r="E146">
-        <v>93914.36671876167</v>
+        <v>93914.36671876164</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2853,16 +2853,16 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>47817.46498799232</v>
+        <v>47817.46498799234</v>
       </c>
       <c r="C147">
-        <v>55544.07677997732</v>
+        <v>55544.07677997735</v>
       </c>
       <c r="D147">
-        <v>72243.49874776989</v>
+        <v>72243.49874776993</v>
       </c>
       <c r="E147">
-        <v>90497.42305967104</v>
+        <v>90497.42305967101</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2870,16 +2870,16 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>47340.50041186324</v>
+        <v>47340.50041186326</v>
       </c>
       <c r="C148">
         <v>54675.95882973435</v>
       </c>
       <c r="D148">
-        <v>71087.27747567614</v>
+        <v>71087.27747567612</v>
       </c>
       <c r="E148">
-        <v>89406.43031937775</v>
+        <v>89406.43031937776</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2887,16 +2887,16 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>44682.71179296115</v>
+        <v>44682.71179296114</v>
       </c>
       <c r="C149">
-        <v>51488.09843332838</v>
+        <v>51488.09843332836</v>
       </c>
       <c r="D149">
-        <v>67625.52459951902</v>
+        <v>67625.52459951906</v>
       </c>
       <c r="E149">
-        <v>86270.31630836143</v>
+        <v>86270.31630836141</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2904,16 +2904,16 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>44682.71179296115</v>
+        <v>44682.71179296114</v>
       </c>
       <c r="C150">
-        <v>51488.09843332838</v>
+        <v>51488.09843332836</v>
       </c>
       <c r="D150">
-        <v>67625.52459951902</v>
+        <v>67625.52459951906</v>
       </c>
       <c r="E150">
-        <v>86270.31630836143</v>
+        <v>86270.31630836141</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2921,16 +2921,16 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>44682.71179296115</v>
+        <v>44682.71179296114</v>
       </c>
       <c r="C151">
-        <v>51488.09843332838</v>
+        <v>51488.09843332836</v>
       </c>
       <c r="D151">
-        <v>67625.52459951902</v>
+        <v>67625.52459951906</v>
       </c>
       <c r="E151">
-        <v>86270.31630836143</v>
+        <v>86270.31630836141</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2938,16 +2938,16 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>44682.71179296115</v>
+        <v>44682.71179296114</v>
       </c>
       <c r="C152">
-        <v>51488.09843332838</v>
+        <v>51488.09843332836</v>
       </c>
       <c r="D152">
-        <v>67625.52459951902</v>
+        <v>67625.52459951906</v>
       </c>
       <c r="E152">
-        <v>86270.31630836143</v>
+        <v>86270.31630836141</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2955,16 +2955,16 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>43183.65237492266</v>
+        <v>43183.65237492265</v>
       </c>
       <c r="C153">
-        <v>51374.77622949149</v>
+        <v>51374.7762294915</v>
       </c>
       <c r="D153">
-        <v>69169.86946485072</v>
+        <v>69169.86946485066</v>
       </c>
       <c r="E153">
-        <v>88547.03314385835</v>
+        <v>88547.03314385834</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2972,16 +2972,16 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>43183.65237492266</v>
+        <v>43183.65237492265</v>
       </c>
       <c r="C154">
-        <v>51374.77622949149</v>
+        <v>51374.7762294915</v>
       </c>
       <c r="D154">
-        <v>69169.86946485072</v>
+        <v>69169.86946485066</v>
       </c>
       <c r="E154">
-        <v>88547.03314385835</v>
+        <v>88547.03314385834</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -2989,16 +2989,16 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>41002.92525573382</v>
+        <v>41002.9252557338</v>
       </c>
       <c r="C155">
-        <v>47650.28341893161</v>
+        <v>47650.28341893158</v>
       </c>
       <c r="D155">
-        <v>63984.80151294817</v>
+        <v>63984.80151294813</v>
       </c>
       <c r="E155">
-        <v>83434.97548220273</v>
+        <v>83434.97548220269</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3006,16 +3006,16 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>41002.92525573382</v>
+        <v>41002.9252557338</v>
       </c>
       <c r="C156">
-        <v>47650.28341893161</v>
+        <v>47650.28341893158</v>
       </c>
       <c r="D156">
-        <v>63984.80151294817</v>
+        <v>63984.80151294813</v>
       </c>
       <c r="E156">
-        <v>83434.97548220273</v>
+        <v>83434.97548220269</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3023,16 +3023,16 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>41430.84721193798</v>
+        <v>41430.84721193797</v>
       </c>
       <c r="C157">
-        <v>48426.54884102678</v>
+        <v>48426.54884102676</v>
       </c>
       <c r="D157">
-        <v>65099.07491163148</v>
+        <v>65099.07491163143</v>
       </c>
       <c r="E157">
-        <v>84639.32502909201</v>
+        <v>84639.32502909203</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3040,16 +3040,16 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>42496.5734635854</v>
+        <v>42496.57346358541</v>
       </c>
       <c r="C158">
-        <v>49956.53187877921</v>
+        <v>49956.53187877919</v>
       </c>
       <c r="D158">
         <v>66985.3583747861</v>
       </c>
       <c r="E158">
-        <v>86206.17541098835</v>
+        <v>86206.17541098836</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3066,7 +3066,7 @@
         <v>65791.58567170562</v>
       </c>
       <c r="E159">
-        <v>84964.16903710272</v>
+        <v>84964.16903710268</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3074,16 +3074,16 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>39952.22357765669</v>
+        <v>39952.2235776567</v>
       </c>
       <c r="C160">
         <v>46739.76036886637</v>
       </c>
       <c r="D160">
-        <v>63160.43287350396</v>
+        <v>63160.43287350392</v>
       </c>
       <c r="E160">
-        <v>82731.11944997254</v>
+        <v>82731.11944997255</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3091,16 +3091,16 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>40246.98773699073</v>
+        <v>40246.98773699072</v>
       </c>
       <c r="C161">
-        <v>48743.95650156124</v>
+        <v>48743.95650156122</v>
       </c>
       <c r="D161">
-        <v>67120.84895753728</v>
+        <v>67120.8489575373</v>
       </c>
       <c r="E161">
-        <v>86905.63864296005</v>
+        <v>86905.63864296004</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3108,16 +3108,16 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>40875.75755882331</v>
+        <v>40875.7575588233</v>
       </c>
       <c r="C162">
-        <v>48345.83129964233</v>
+        <v>48345.83129964232</v>
       </c>
       <c r="D162">
-        <v>65414.86725013169</v>
+        <v>65414.86725013168</v>
       </c>
       <c r="E162">
-        <v>85154.48553178566</v>
+        <v>85154.48553178563</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3125,16 +3125,16 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>45523.38896640427</v>
+        <v>45523.38896640428</v>
       </c>
       <c r="C163">
-        <v>52730.40174427733</v>
+        <v>52730.40174427735</v>
       </c>
       <c r="D163">
-        <v>68877.06847725717</v>
+        <v>68877.06847725721</v>
       </c>
       <c r="E163">
-        <v>87370.25878558711</v>
+        <v>87370.2587855871</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3142,16 +3142,16 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>45998.69580472607</v>
+        <v>45998.69580472606</v>
       </c>
       <c r="C164">
-        <v>53582.28983461495</v>
+        <v>53582.28983461492</v>
       </c>
       <c r="D164">
         <v>70036.85832921704</v>
       </c>
       <c r="E164">
-        <v>88532.1346797711</v>
+        <v>88532.13467977104</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3159,16 +3159,16 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>42239.84755381403</v>
+        <v>42239.84755381404</v>
       </c>
       <c r="C165">
-        <v>49611.96144297391</v>
+        <v>49611.96144297392</v>
       </c>
       <c r="D165">
-        <v>66432.34035271425</v>
+        <v>66432.34035271427</v>
       </c>
       <c r="E165">
-        <v>85419.86982330946</v>
+        <v>85419.86982330943</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3176,16 +3176,16 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>42239.84755381403</v>
+        <v>42239.84755381404</v>
       </c>
       <c r="C166">
-        <v>49611.96144297391</v>
+        <v>49611.96144297392</v>
       </c>
       <c r="D166">
-        <v>66432.34035271425</v>
+        <v>66432.34035271427</v>
       </c>
       <c r="E166">
-        <v>85419.86982330946</v>
+        <v>85419.86982330943</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3196,7 +3196,7 @@
         <v>42007.58632140257</v>
       </c>
       <c r="C167">
-        <v>50846.50471895094</v>
+        <v>50846.50471895097</v>
       </c>
       <c r="D167">
         <v>69251.40643401274</v>
@@ -3210,13 +3210,13 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>42536.34273894148</v>
+        <v>42536.34273894149</v>
       </c>
       <c r="C168">
         <v>51779.33749081913</v>
       </c>
       <c r="D168">
-        <v>70484.91969102681</v>
+        <v>70484.91969102684</v>
       </c>
       <c r="E168">
         <v>89855.84258643113</v>
@@ -3227,7 +3227,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>51484.13757669803</v>
+        <v>51484.13757669805</v>
       </c>
       <c r="C169">
         <v>59987.02661162865</v>
@@ -3244,16 +3244,16 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>50059.76695883982</v>
+        <v>50059.76695883983</v>
       </c>
       <c r="C170">
-        <v>57814.07796210899</v>
+        <v>57814.077962109</v>
       </c>
       <c r="D170">
-        <v>74403.21738348686</v>
+        <v>74403.21738348689</v>
       </c>
       <c r="E170">
-        <v>92375.72333746118</v>
+        <v>92375.72333746114</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3261,7 +3261,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>51484.13757669803</v>
+        <v>51484.13757669805</v>
       </c>
       <c r="C171">
         <v>59987.02661162865</v>
@@ -3278,16 +3278,16 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>50059.76695883982</v>
+        <v>50059.76695883983</v>
       </c>
       <c r="C172">
-        <v>57814.07796210899</v>
+        <v>57814.077962109</v>
       </c>
       <c r="D172">
-        <v>74403.21738348686</v>
+        <v>74403.21738348689</v>
       </c>
       <c r="E172">
-        <v>92375.72333746118</v>
+        <v>92375.72333746114</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3295,16 +3295,16 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>50059.76695883982</v>
+        <v>50059.76695883983</v>
       </c>
       <c r="C173">
-        <v>57814.07796210899</v>
+        <v>57814.077962109</v>
       </c>
       <c r="D173">
-        <v>74403.21738348686</v>
+        <v>74403.21738348689</v>
       </c>
       <c r="E173">
-        <v>92375.72333746118</v>
+        <v>92375.72333746114</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3312,16 +3312,16 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>49953.26027520158</v>
+        <v>49953.26027520155</v>
       </c>
       <c r="C174">
-        <v>57718.36439737102</v>
+        <v>57718.36439737104</v>
       </c>
       <c r="D174">
-        <v>73985.91693649646</v>
+        <v>73985.91693649648</v>
       </c>
       <c r="E174">
-        <v>91703.82246333746</v>
+        <v>91703.82246333743</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3332,13 +3332,13 @@
         <v>50559.7747609138</v>
       </c>
       <c r="C175">
-        <v>59532.48278517205</v>
+        <v>59532.48278517204</v>
       </c>
       <c r="D175">
-        <v>76838.04297513526</v>
+        <v>76838.04297513531</v>
       </c>
       <c r="E175">
-        <v>94486.47543787771</v>
+        <v>94486.47543787774</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3349,13 +3349,13 @@
         <v>50014.4409527868</v>
       </c>
       <c r="C176">
-        <v>58594.33121170544</v>
+        <v>58594.33121170546</v>
       </c>
       <c r="D176">
-        <v>75707.41432549301</v>
+        <v>75707.41432549299</v>
       </c>
       <c r="E176">
-        <v>93540.89851967487</v>
+        <v>93540.89851967491</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3366,13 +3366,13 @@
         <v>50014.4409527868</v>
       </c>
       <c r="C177">
-        <v>58594.33121170544</v>
+        <v>58594.33121170546</v>
       </c>
       <c r="D177">
-        <v>75707.41432549301</v>
+        <v>75707.41432549299</v>
       </c>
       <c r="E177">
-        <v>93540.89851967487</v>
+        <v>93540.89851967491</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3380,16 +3380,16 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>49974.04089754922</v>
+        <v>49974.04089754921</v>
       </c>
       <c r="C178">
-        <v>57897.88067694473</v>
+        <v>57897.88067694472</v>
       </c>
       <c r="D178">
-        <v>74429.72006711809</v>
+        <v>74429.72006711812</v>
       </c>
       <c r="E178">
-        <v>92273.09208786288</v>
+        <v>92273.09208786284</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3397,16 +3397,16 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>49520.68209681762</v>
+        <v>49520.68209681763</v>
       </c>
       <c r="C179">
         <v>57608.90891043606</v>
       </c>
       <c r="D179">
-        <v>74325.22468692955</v>
+        <v>74325.22468692961</v>
       </c>
       <c r="E179">
-        <v>92229.15065430698</v>
+        <v>92229.15065430694</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3414,10 +3414,10 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>50572.43798527262</v>
+        <v>50572.43798527263</v>
       </c>
       <c r="C180">
-        <v>59463.19296178982</v>
+        <v>59463.19296178981</v>
       </c>
       <c r="D180">
         <v>76595.67137579499</v>
@@ -3431,10 +3431,10 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>50572.43798527262</v>
+        <v>50572.43798527263</v>
       </c>
       <c r="C181">
-        <v>59463.19296178982</v>
+        <v>59463.19296178981</v>
       </c>
       <c r="D181">
         <v>76595.67137579499</v>
@@ -3451,13 +3451,13 @@
         <v>43172.68770077243</v>
       </c>
       <c r="C182">
-        <v>51174.24461700048</v>
+        <v>51174.24461700051</v>
       </c>
       <c r="D182">
-        <v>69269.19224565352</v>
+        <v>69269.1922456535</v>
       </c>
       <c r="E182">
-        <v>89071.84889386635</v>
+        <v>89071.84889386641</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3465,13 +3465,13 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>42294.74757634112</v>
+        <v>42294.74757634113</v>
       </c>
       <c r="C183">
-        <v>49418.45410913404</v>
+        <v>49418.45410913409</v>
       </c>
       <c r="D183">
-        <v>67219.15056854654</v>
+        <v>67219.15056854652</v>
       </c>
       <c r="E183">
         <v>87372.06283605512</v>
@@ -3488,10 +3488,10 @@
         <v>55087.93582478698</v>
       </c>
       <c r="D184">
-        <v>72736.34049126781</v>
+        <v>72736.34049126782</v>
       </c>
       <c r="E184">
-        <v>91525.99539945491</v>
+        <v>91525.9953994549</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3505,10 +3505,10 @@
         <v>55087.93582478698</v>
       </c>
       <c r="D185">
-        <v>72736.34049126781</v>
+        <v>72736.34049126782</v>
       </c>
       <c r="E185">
-        <v>91525.99539945491</v>
+        <v>91525.9953994549</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3516,13 +3516,13 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>42327.85718776684</v>
+        <v>42327.85718776682</v>
       </c>
       <c r="C186">
-        <v>50715.85557652041</v>
+        <v>50715.85557652038</v>
       </c>
       <c r="D186">
-        <v>69396.6187146336</v>
+        <v>69396.61871463362</v>
       </c>
       <c r="E186">
         <v>89170.54400960109</v>
@@ -3533,16 +3533,16 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>41832.97385123781</v>
+        <v>41832.97385123779</v>
       </c>
       <c r="C187">
-        <v>49749.27535007813</v>
+        <v>49749.27535007812</v>
       </c>
       <c r="D187">
         <v>68169.6520832824</v>
       </c>
       <c r="E187">
-        <v>88019.41905021401</v>
+        <v>88019.419050214</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3550,16 +3550,16 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>42278.42527011189</v>
+        <v>42278.4252701119</v>
       </c>
       <c r="C188">
-        <v>50690.47228349982</v>
+        <v>50690.47228349987</v>
       </c>
       <c r="D188">
         <v>69243.20346033809</v>
       </c>
       <c r="E188">
-        <v>89273.55214135957</v>
+        <v>89273.55214135961</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3567,16 +3567,16 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>42278.42527011189</v>
+        <v>42278.4252701119</v>
       </c>
       <c r="C189">
-        <v>50690.47228349982</v>
+        <v>50690.47228349987</v>
       </c>
       <c r="D189">
         <v>69243.20346033809</v>
       </c>
       <c r="E189">
-        <v>89273.55214135957</v>
+        <v>89273.55214135961</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3584,16 +3584,16 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>42278.42527011189</v>
+        <v>42278.4252701119</v>
       </c>
       <c r="C190">
-        <v>50690.47228349982</v>
+        <v>50690.47228349987</v>
       </c>
       <c r="D190">
         <v>69243.20346033809</v>
       </c>
       <c r="E190">
-        <v>89273.55214135957</v>
+        <v>89273.55214135961</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3601,16 +3601,16 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>46385.32796895153</v>
+        <v>46385.32796895152</v>
       </c>
       <c r="C191">
-        <v>55137.65376373505</v>
+        <v>55137.65376373506</v>
       </c>
       <c r="D191">
         <v>73012.79504880166</v>
       </c>
       <c r="E191">
-        <v>91705.57862378063</v>
+        <v>91705.57862378065</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3618,16 +3618,16 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>41832.97385123781</v>
+        <v>41832.97385123779</v>
       </c>
       <c r="C192">
-        <v>49749.27535007813</v>
+        <v>49749.27535007812</v>
       </c>
       <c r="D192">
         <v>68169.6520832824</v>
       </c>
       <c r="E192">
-        <v>88019.41905021401</v>
+        <v>88019.419050214</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3635,16 +3635,16 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>50371.84070763232</v>
+        <v>50371.8407076323</v>
       </c>
       <c r="C193">
-        <v>58920.81374081532</v>
+        <v>58920.81374081531</v>
       </c>
       <c r="D193">
-        <v>76069.90991106104</v>
+        <v>76069.9099110611</v>
       </c>
       <c r="E193">
-        <v>93518.79892379267</v>
+        <v>93518.79892379268</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3652,16 +3652,16 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>50371.84070763232</v>
+        <v>50371.8407076323</v>
       </c>
       <c r="C194">
-        <v>58920.81374081532</v>
+        <v>58920.81374081531</v>
       </c>
       <c r="D194">
-        <v>76069.90991106104</v>
+        <v>76069.9099110611</v>
       </c>
       <c r="E194">
-        <v>93518.79892379267</v>
+        <v>93518.79892379268</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3669,7 +3669,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>51484.13757669803</v>
+        <v>51484.13757669805</v>
       </c>
       <c r="C195">
         <v>59987.02661162865</v>
@@ -3689,13 +3689,13 @@
         <v>47421.83272186655</v>
       </c>
       <c r="C196">
-        <v>55468.1230746035</v>
+        <v>55468.12307460352</v>
       </c>
       <c r="D196">
         <v>72897.94207594286</v>
       </c>
       <c r="E196">
-        <v>91398.15446060528</v>
+        <v>91398.15446060519</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3706,13 +3706,13 @@
         <v>47782.91444318549</v>
       </c>
       <c r="C197">
-        <v>55963.63417137183</v>
+        <v>55963.63417137184</v>
       </c>
       <c r="D197">
-        <v>73559.23322876745</v>
+        <v>73559.23322876748</v>
       </c>
       <c r="E197">
-        <v>91793.6487980275</v>
+        <v>91793.64879802754</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3723,13 +3723,13 @@
         <v>47782.91444318549</v>
       </c>
       <c r="C198">
-        <v>55963.63417137183</v>
+        <v>55963.63417137184</v>
       </c>
       <c r="D198">
-        <v>73559.23322876745</v>
+        <v>73559.23322876748</v>
       </c>
       <c r="E198">
-        <v>91793.6487980275</v>
+        <v>91793.64879802754</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3737,7 +3737,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>48310.85072676351</v>
+        <v>48310.85072676352</v>
       </c>
       <c r="C199">
         <v>56966.10762891037</v>
@@ -3746,7 +3746,7 @@
         <v>74796.46509941548</v>
       </c>
       <c r="E199">
-        <v>92840.60444991414</v>
+        <v>92840.60444991416</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3754,7 +3754,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>48310.85072676351</v>
+        <v>48310.85072676352</v>
       </c>
       <c r="C200">
         <v>56966.10762891037</v>
@@ -3763,7 +3763,7 @@
         <v>74796.46509941548</v>
       </c>
       <c r="E200">
-        <v>92840.60444991414</v>
+        <v>92840.60444991416</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3771,16 +3771,16 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>48423.5065633972</v>
+        <v>48423.50656339721</v>
       </c>
       <c r="C201">
-        <v>58318.38270306775</v>
+        <v>58318.38270306774</v>
       </c>
       <c r="D201">
-        <v>77141.53876753688</v>
+        <v>77141.5387675369</v>
       </c>
       <c r="E201">
-        <v>94707.62119608557</v>
+        <v>94707.62119608556</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3788,13 +3788,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>46708.36801965751</v>
+        <v>46708.36801965748</v>
       </c>
       <c r="C202">
-        <v>56779.35537014599</v>
+        <v>56779.355370146</v>
       </c>
       <c r="D202">
-        <v>76120.05672161271</v>
+        <v>76120.05672161272</v>
       </c>
       <c r="E202">
         <v>94284.14247835166</v>
@@ -3805,16 +3805,16 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>47939.59785643962</v>
+        <v>47939.59785643964</v>
       </c>
       <c r="C203">
         <v>56427.69275340257</v>
       </c>
       <c r="D203">
-        <v>74063.30655942562</v>
+        <v>74063.30655942563</v>
       </c>
       <c r="E203">
-        <v>92424.04008831487</v>
+        <v>92424.04008831484</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3822,16 +3822,16 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>45779.42188909269</v>
+        <v>45779.42188909266</v>
       </c>
       <c r="C204">
-        <v>54405.46616905166</v>
+        <v>54405.46616905167</v>
       </c>
       <c r="D204">
         <v>72698.71088437912</v>
       </c>
       <c r="E204">
-        <v>91499.5069808043</v>
+        <v>91499.50698080428</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3839,16 +3839,16 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>46321.36368683233</v>
+        <v>46321.36368683231</v>
       </c>
       <c r="C205">
-        <v>55397.57444001274</v>
+        <v>55397.57444001275</v>
       </c>
       <c r="D205">
         <v>73891.24643462083</v>
       </c>
       <c r="E205">
-        <v>92523.90820607623</v>
+        <v>92523.90820607622</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3859,13 +3859,13 @@
         <v>30312.91585904242</v>
       </c>
       <c r="C206">
-        <v>41091.04741399135</v>
+        <v>41091.04741399134</v>
       </c>
       <c r="D206">
-        <v>59163.06167437916</v>
+        <v>59163.06167437915</v>
       </c>
       <c r="E206">
-        <v>77259.07293152191</v>
+        <v>77259.07293152192</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3873,16 +3873,16 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>28792.98563181687</v>
+        <v>28792.98563181686</v>
       </c>
       <c r="C207">
-        <v>38436.70017535255</v>
+        <v>38436.70017535254</v>
       </c>
       <c r="D207">
-        <v>55411.55837323664</v>
+        <v>55411.55837323666</v>
       </c>
       <c r="E207">
-        <v>73000.23567042543</v>
+        <v>73000.23567042542</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3890,16 +3890,16 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>28792.98563181687</v>
+        <v>28792.98563181686</v>
       </c>
       <c r="C208">
-        <v>38436.70017535255</v>
+        <v>38436.70017535254</v>
       </c>
       <c r="D208">
-        <v>55411.55837323664</v>
+        <v>55411.55837323666</v>
       </c>
       <c r="E208">
-        <v>73000.23567042543</v>
+        <v>73000.23567042542</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3910,13 +3910,13 @@
         <v>30312.91585904242</v>
       </c>
       <c r="C209">
-        <v>41091.04741399135</v>
+        <v>41091.04741399134</v>
       </c>
       <c r="D209">
-        <v>59163.06167437916</v>
+        <v>59163.06167437915</v>
       </c>
       <c r="E209">
-        <v>77259.07293152191</v>
+        <v>77259.07293152192</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3924,16 +3924,16 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>28792.98563181687</v>
+        <v>28792.98563181686</v>
       </c>
       <c r="C210">
-        <v>38436.70017535255</v>
+        <v>38436.70017535254</v>
       </c>
       <c r="D210">
-        <v>55411.55837323664</v>
+        <v>55411.55837323666</v>
       </c>
       <c r="E210">
-        <v>73000.23567042543</v>
+        <v>73000.23567042542</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3941,16 +3941,16 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>29480.21988021459</v>
+        <v>29480.21988021458</v>
       </c>
       <c r="C211">
-        <v>39305.10045534259</v>
+        <v>39305.10045534257</v>
       </c>
       <c r="D211">
-        <v>56737.03985696814</v>
+        <v>56737.03985696813</v>
       </c>
       <c r="E211">
-        <v>75026.68523945812</v>
+        <v>75026.68523945815</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3961,13 +3961,13 @@
         <v>32117.49858562115</v>
       </c>
       <c r="C212">
-        <v>43169.60281431625</v>
+        <v>43169.60281431627</v>
       </c>
       <c r="D212">
-        <v>61539.76387923451</v>
+        <v>61539.7638792345</v>
       </c>
       <c r="E212">
-        <v>79852.05899927838</v>
+        <v>79852.05899927841</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3975,16 +3975,16 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>28792.98563181687</v>
+        <v>28792.98563181686</v>
       </c>
       <c r="C213">
-        <v>38436.70017535255</v>
+        <v>38436.70017535254</v>
       </c>
       <c r="D213">
-        <v>55411.55837323664</v>
+        <v>55411.55837323666</v>
       </c>
       <c r="E213">
-        <v>73000.23567042543</v>
+        <v>73000.23567042542</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -3992,16 +3992,16 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>27156.05423050288</v>
+        <v>27156.05423050287</v>
       </c>
       <c r="C214">
-        <v>35705.08498801893</v>
+        <v>35705.08498801892</v>
       </c>
       <c r="D214">
-        <v>51841.66042819396</v>
+        <v>51841.66042819397</v>
       </c>
       <c r="E214">
-        <v>69138.48398447255</v>
+        <v>69138.48398447252</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4009,16 +4009,16 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>27156.05423050288</v>
+        <v>27156.05423050287</v>
       </c>
       <c r="C215">
-        <v>35705.08498801893</v>
+        <v>35705.08498801892</v>
       </c>
       <c r="D215">
-        <v>51841.66042819396</v>
+        <v>51841.66042819397</v>
       </c>
       <c r="E215">
-        <v>69138.48398447255</v>
+        <v>69138.48398447252</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4026,16 +4026,16 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>26780.50678806463</v>
+        <v>26780.50678806462</v>
       </c>
       <c r="C216">
-        <v>35004.76659015622</v>
+        <v>35004.76659015623</v>
       </c>
       <c r="D216">
-        <v>50715.39887074466</v>
+        <v>50715.39887074463</v>
       </c>
       <c r="E216">
-        <v>67733.47219966417</v>
+        <v>67733.47219966415</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4043,16 +4043,16 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>27300.26607855164</v>
+        <v>27300.26607855163</v>
       </c>
       <c r="C217">
         <v>36269.88973197641</v>
       </c>
       <c r="D217">
-        <v>53069.12826418189</v>
+        <v>53069.12826418193</v>
       </c>
       <c r="E217">
-        <v>70713.17104009898</v>
+        <v>70713.17104009903</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4063,13 +4063,13 @@
         <v>27706.06573252629</v>
       </c>
       <c r="C218">
-        <v>37122.89259169021</v>
+        <v>37122.89259169022</v>
       </c>
       <c r="D218">
-        <v>54420.80339529655</v>
+        <v>54420.80339529659</v>
       </c>
       <c r="E218">
-        <v>72409.36927448206</v>
+        <v>72409.36927448204</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4077,16 +4077,16 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>31756.71028842163</v>
+        <v>31756.71028842162</v>
       </c>
       <c r="C219">
-        <v>42324.09040301428</v>
+        <v>42324.09040301429</v>
       </c>
       <c r="D219">
-        <v>60610.2250070222</v>
+        <v>60610.22500702217</v>
       </c>
       <c r="E219">
-        <v>78985.31653072601</v>
+        <v>78985.31653072598</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4100,7 +4100,7 @@
         <v>44234.46112600906</v>
       </c>
       <c r="D220">
-        <v>63206.04118448817</v>
+        <v>63206.04118448815</v>
       </c>
       <c r="E220">
         <v>81566.9909789299</v>
@@ -4111,16 +4111,16 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>33294.18312990851</v>
+        <v>33294.18312990852</v>
       </c>
       <c r="C221">
-        <v>44394.0308524219</v>
+        <v>44394.03085242192</v>
       </c>
       <c r="D221">
-        <v>63239.09778723221</v>
+        <v>63239.0977872322</v>
       </c>
       <c r="E221">
-        <v>81691.65862476922</v>
+        <v>81691.6586247692</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4128,16 +4128,16 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>31756.71028842163</v>
+        <v>31756.71028842162</v>
       </c>
       <c r="C222">
-        <v>42324.09040301428</v>
+        <v>42324.09040301429</v>
       </c>
       <c r="D222">
-        <v>60610.2250070222</v>
+        <v>60610.22500702217</v>
       </c>
       <c r="E222">
-        <v>78985.31653072601</v>
+        <v>78985.31653072598</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4145,16 +4145,16 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>33895.69063571133</v>
+        <v>33895.69063571134</v>
       </c>
       <c r="C223">
         <v>45548.13616540837</v>
       </c>
       <c r="D223">
-        <v>64701.00664110512</v>
+        <v>64701.00664110509</v>
       </c>
       <c r="E223">
-        <v>83177.65135202373</v>
+        <v>83177.65135202368</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4162,16 +4162,16 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>26276.84157532433</v>
+        <v>26276.84157532434</v>
       </c>
       <c r="C224">
-        <v>34823.32394961946</v>
+        <v>34823.32394961945</v>
       </c>
       <c r="D224">
-        <v>51293.67553083759</v>
+        <v>51293.6755308376</v>
       </c>
       <c r="E224">
-        <v>69216.37694309397</v>
+        <v>69216.376943094</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4182,10 +4182,10 @@
         <v>25534.92868970972</v>
       </c>
       <c r="C225">
-        <v>33404.7795246182</v>
+        <v>33404.77952461818</v>
       </c>
       <c r="D225">
-        <v>48858.99150245331</v>
+        <v>48858.99150245333</v>
       </c>
       <c r="E225">
         <v>65803.6677239266</v>
@@ -4205,7 +4205,7 @@
         <v>50072.63100347123</v>
       </c>
       <c r="E226">
-        <v>67519.48231338995</v>
+        <v>67519.48231338993</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4213,16 +4213,16 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>25880.29045679333</v>
+        <v>25880.29045679332</v>
       </c>
       <c r="C227">
-        <v>33603.09367152888</v>
+        <v>33603.09367152887</v>
       </c>
       <c r="D227">
-        <v>48733.21221512672</v>
+        <v>48733.21221512673</v>
       </c>
       <c r="E227">
-        <v>65548.50457574862</v>
+        <v>65548.50457574864</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4230,16 +4230,16 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>25054.97989894794</v>
+        <v>25054.97989894795</v>
       </c>
       <c r="C228">
-        <v>33748.03050690366</v>
+        <v>33748.03050690365</v>
       </c>
       <c r="D228">
-        <v>51048.79905032101</v>
+        <v>51048.799050321</v>
       </c>
       <c r="E228">
-        <v>69999.867459482</v>
+        <v>69999.86745948197</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4253,7 +4253,7 @@
         <v>44234.46112600906</v>
       </c>
       <c r="D229">
-        <v>63206.04118448817</v>
+        <v>63206.04118448815</v>
       </c>
       <c r="E229">
         <v>81566.9909789299</v>
@@ -4267,13 +4267,13 @@
         <v>32711.69514448741</v>
       </c>
       <c r="C230">
-        <v>43269.95813012569</v>
+        <v>43269.95813012571</v>
       </c>
       <c r="D230">
-        <v>61753.88573948604</v>
+        <v>61753.88573948601</v>
       </c>
       <c r="E230">
-        <v>80143.11545445888</v>
+        <v>80143.11545445886</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4281,16 +4281,16 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>32654.53528395236</v>
+        <v>32654.53528395237</v>
       </c>
       <c r="C231">
-        <v>44234.64689815963</v>
+        <v>44234.64689815964</v>
       </c>
       <c r="D231">
-        <v>62956.02835541125</v>
+        <v>62956.02835541123</v>
       </c>
       <c r="E231">
-        <v>81372.08028311013</v>
+        <v>81372.08028311015</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4298,16 +4298,16 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>29976.23427475914</v>
+        <v>29976.23427475915</v>
       </c>
       <c r="C232">
-        <v>39989.38793310389</v>
+        <v>39989.38793310391</v>
       </c>
       <c r="D232">
-        <v>58208.10189652775</v>
+        <v>58208.10189652776</v>
       </c>
       <c r="E232">
-        <v>76788.55883973697</v>
+        <v>76788.558839737</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4315,16 +4315,16 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>30437.62522614127</v>
+        <v>30437.62522614128</v>
       </c>
       <c r="C233">
-        <v>40981.08202026038</v>
+        <v>40981.08202026037</v>
       </c>
       <c r="D233">
-        <v>59641.23133810471</v>
+        <v>59641.23133810472</v>
       </c>
       <c r="E233">
-        <v>78399.41021920925</v>
+        <v>78399.41021920914</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4332,16 +4332,16 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>33727.45716076831</v>
+        <v>33727.45716076832</v>
       </c>
       <c r="C234">
-        <v>44609.74449304625</v>
+        <v>44609.74449304627</v>
       </c>
       <c r="D234">
-        <v>62960.79784252206</v>
+        <v>62960.79784252205</v>
       </c>
       <c r="E234">
-        <v>81325.02495517915</v>
+        <v>81325.02495517924</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4349,16 +4349,16 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>33727.45716076831</v>
+        <v>33727.45716076832</v>
       </c>
       <c r="C235">
-        <v>44609.74449304625</v>
+        <v>44609.74449304627</v>
       </c>
       <c r="D235">
-        <v>62960.79784252206</v>
+        <v>62960.79784252205</v>
       </c>
       <c r="E235">
-        <v>81325.02495517915</v>
+        <v>81325.02495517924</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4366,16 +4366,16 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>33727.45716076831</v>
+        <v>33727.45716076832</v>
       </c>
       <c r="C236">
-        <v>44609.74449304625</v>
+        <v>44609.74449304627</v>
       </c>
       <c r="D236">
-        <v>62960.79784252206</v>
+        <v>62960.79784252205</v>
       </c>
       <c r="E236">
-        <v>81325.02495517915</v>
+        <v>81325.02495517924</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4386,13 +4386,13 @@
         <v>26222.38786022178</v>
       </c>
       <c r="C237">
-        <v>34268.16683090969</v>
+        <v>34268.16683090968</v>
       </c>
       <c r="D237">
         <v>49930.59422117811</v>
       </c>
       <c r="E237">
-        <v>67256.05191635751</v>
+        <v>67256.05191635748</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4400,16 +4400,16 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>25880.29045679333</v>
+        <v>25880.29045679332</v>
       </c>
       <c r="C238">
-        <v>33603.09367152888</v>
+        <v>33603.09367152887</v>
       </c>
       <c r="D238">
-        <v>48733.21221512672</v>
+        <v>48733.21221512673</v>
       </c>
       <c r="E238">
-        <v>65548.50457574862</v>
+        <v>65548.50457574864</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4423,10 +4423,10 @@
         <v>34954.8407749685</v>
       </c>
       <c r="D239">
-        <v>51146.01021427565</v>
+        <v>51146.01021427567</v>
       </c>
       <c r="E239">
-        <v>68942.25330388185</v>
+        <v>68942.25330388187</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4440,7 +4440,7 @@
         <v>34687.96583219519</v>
       </c>
       <c r="D240">
-        <v>50442.01853348315</v>
+        <v>50442.01853348316</v>
       </c>
       <c r="E240">
         <v>67578.92266338393</v>
@@ -4451,13 +4451,13 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>25910.28906494785</v>
+        <v>25910.28906494784</v>
       </c>
       <c r="C241">
-        <v>34116.8134189271</v>
+        <v>34116.81341892709</v>
       </c>
       <c r="D241">
-        <v>49811.1736746311</v>
+        <v>49811.17367463112</v>
       </c>
       <c r="E241">
         <v>66930.34332425664</v>
@@ -4468,16 +4468,16 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>33294.18312990851</v>
+        <v>33294.18312990852</v>
       </c>
       <c r="C242">
-        <v>44394.0308524219</v>
+        <v>44394.03085242192</v>
       </c>
       <c r="D242">
-        <v>63239.09778723221</v>
+        <v>63239.0977872322</v>
       </c>
       <c r="E242">
-        <v>81691.65862476922</v>
+        <v>81691.6586247692</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4485,16 +4485,16 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>35405.96928173384</v>
+        <v>35405.96928173383</v>
       </c>
       <c r="C243">
-        <v>46673.14881302595</v>
+        <v>46673.14881302597</v>
       </c>
       <c r="D243">
-        <v>65464.98543097855</v>
+        <v>65464.98543097856</v>
       </c>
       <c r="E243">
-        <v>83712.95204350671</v>
+        <v>83712.95204350675</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4502,16 +4502,16 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>33294.18312990851</v>
+        <v>33294.18312990852</v>
       </c>
       <c r="C244">
-        <v>44394.0308524219</v>
+        <v>44394.03085242192</v>
       </c>
       <c r="D244">
-        <v>63239.09778723221</v>
+        <v>63239.0977872322</v>
       </c>
       <c r="E244">
-        <v>81691.65862476922</v>
+        <v>81691.6586247692</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4522,10 +4522,10 @@
         <v>36064.38754830723</v>
       </c>
       <c r="C245">
-        <v>47893.07591091633</v>
+        <v>47893.07591091635</v>
       </c>
       <c r="D245">
-        <v>66956.78605194492</v>
+        <v>66956.78605194489</v>
       </c>
       <c r="E245">
         <v>85130.32032134522</v>
@@ -4536,16 +4536,16 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>36051.66386225703</v>
+        <v>36051.66386225702</v>
       </c>
       <c r="C246">
-        <v>48845.85798925458</v>
+        <v>48845.85798925461</v>
       </c>
       <c r="D246">
         <v>68445.90748683002</v>
       </c>
       <c r="E246">
-        <v>86631.53281134774</v>
+        <v>86631.5328113477</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4553,16 +4553,16 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>36051.66386225703</v>
+        <v>36051.66386225702</v>
       </c>
       <c r="C247">
-        <v>48845.85798925458</v>
+        <v>48845.85798925461</v>
       </c>
       <c r="D247">
         <v>68445.90748683002</v>
       </c>
       <c r="E247">
-        <v>86631.53281134774</v>
+        <v>86631.5328113477</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4573,13 +4573,13 @@
         <v>30405.53550383116</v>
       </c>
       <c r="C248">
-        <v>41104.32568775991</v>
+        <v>41104.32568775989</v>
       </c>
       <c r="D248">
-        <v>59431.56867950367</v>
+        <v>59431.56867950363</v>
       </c>
       <c r="E248">
-        <v>78209.9049268758</v>
+        <v>78209.90492687572</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4587,16 +4587,16 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>25054.97989894794</v>
+        <v>25054.97989894795</v>
       </c>
       <c r="C249">
-        <v>33748.03050690366</v>
+        <v>33748.03050690365</v>
       </c>
       <c r="D249">
-        <v>51048.79905032101</v>
+        <v>51048.799050321</v>
       </c>
       <c r="E249">
-        <v>69999.867459482</v>
+        <v>69999.86745948197</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4604,10 +4604,10 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>45867.82953565718</v>
+        <v>45867.82953565719</v>
       </c>
       <c r="C250">
-        <v>56285.60349669606</v>
+        <v>56285.60349669607</v>
       </c>
       <c r="D250">
         <v>73525.72712560919</v>
@@ -4627,7 +4627,7 @@
         <v>58628.52065942952</v>
       </c>
       <c r="D251">
-        <v>75775.74627267623</v>
+        <v>75775.74627267629</v>
       </c>
       <c r="E251">
         <v>92039.74816846348</v>
@@ -4641,10 +4641,10 @@
         <v>41997.84587738693</v>
       </c>
       <c r="C252">
-        <v>51768.99817255884</v>
+        <v>51768.99817255882</v>
       </c>
       <c r="D252">
-        <v>69325.93964586483</v>
+        <v>69325.93964586481</v>
       </c>
       <c r="E252">
         <v>86966.07983870246</v>
@@ -4658,10 +4658,10 @@
         <v>43819.16022254514</v>
       </c>
       <c r="C253">
-        <v>54385.12597177563</v>
+        <v>54385.12597177562</v>
       </c>
       <c r="D253">
-        <v>72677.13125145732</v>
+        <v>72677.13125145734</v>
       </c>
       <c r="E253">
         <v>90130.24778426741</v>
@@ -4672,16 +4672,16 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>47961.45509113953</v>
+        <v>47961.45509113954</v>
       </c>
       <c r="C254">
-        <v>58555.13710328149</v>
+        <v>58555.13710328151</v>
       </c>
       <c r="D254">
-        <v>76224.35912225972</v>
+        <v>76224.35912225973</v>
       </c>
       <c r="E254">
-        <v>93035.30821857814</v>
+        <v>93035.30821857815</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4692,10 +4692,10 @@
         <v>43819.16022254514</v>
       </c>
       <c r="C255">
-        <v>54385.12597177563</v>
+        <v>54385.12597177562</v>
       </c>
       <c r="D255">
-        <v>72677.13125145732</v>
+        <v>72677.13125145734</v>
       </c>
       <c r="E255">
         <v>90130.24778426741</v>
@@ -4706,16 +4706,16 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>39351.84940439667</v>
+        <v>39351.84940439668</v>
       </c>
       <c r="C256">
-        <v>49524.14714365462</v>
+        <v>49524.14714365463</v>
       </c>
       <c r="D256">
-        <v>67455.6317416079</v>
+        <v>67455.63174160785</v>
       </c>
       <c r="E256">
-        <v>85509.26048422344</v>
+        <v>85509.26048422341</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4723,16 +4723,16 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>34138.04200551201</v>
+        <v>34138.04200551202</v>
       </c>
       <c r="C257">
-        <v>43116.42008323252</v>
+        <v>43116.4200832325</v>
       </c>
       <c r="D257">
-        <v>61492.05165509894</v>
+        <v>61492.05165509899</v>
       </c>
       <c r="E257">
-        <v>80466.63593879176</v>
+        <v>80466.63593879172</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4740,16 +4740,16 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>38282.04978957907</v>
+        <v>38282.04978957908</v>
       </c>
       <c r="C258">
         <v>45817.58437380043</v>
       </c>
       <c r="D258">
-        <v>62882.02735260729</v>
+        <v>62882.0273526073</v>
       </c>
       <c r="E258">
-        <v>81284.47735771514</v>
+        <v>81284.47735771515</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4757,16 +4757,16 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>38282.04978957907</v>
+        <v>38282.04978957908</v>
       </c>
       <c r="C259">
         <v>45817.58437380043</v>
       </c>
       <c r="D259">
-        <v>62882.02735260729</v>
+        <v>62882.0273526073</v>
       </c>
       <c r="E259">
-        <v>81284.47735771514</v>
+        <v>81284.47735771515</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4774,7 +4774,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>14463.79008859795</v>
+        <v>14463.79008859796</v>
       </c>
       <c r="C260">
         <v>22134.65590214885</v>
@@ -4783,7 +4783,7 @@
         <v>45218.91063797779</v>
       </c>
       <c r="E260">
-        <v>70608.83174883314</v>
+        <v>70608.83174883312</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4791,16 +4791,16 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>8583.471097363503</v>
+        <v>8583.471097363501</v>
       </c>
       <c r="C261">
         <v>13332.43956685919</v>
       </c>
       <c r="D261">
-        <v>34026.51658059047</v>
+        <v>34026.51658059046</v>
       </c>
       <c r="E261">
-        <v>58784.13198597093</v>
+        <v>58784.13198597086</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4814,10 +4814,10 @@
         <v>20072.22375780046</v>
       </c>
       <c r="D262">
-        <v>41906.23829753228</v>
+        <v>41906.2382975323</v>
       </c>
       <c r="E262">
-        <v>66987.75008430323</v>
+        <v>66987.75008430326</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4834,7 +4834,7 @@
         <v>43261.15446860409</v>
       </c>
       <c r="E263">
-        <v>68684.68175854186</v>
+        <v>68684.6817585419</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4885,7 +4885,7 @@
         <v>50172.17594774742</v>
       </c>
       <c r="E266">
-        <v>75536.2016836308</v>
+        <v>75536.20168363082</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4910,16 +4910,16 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>8583.471097363503</v>
+        <v>8583.471097363501</v>
       </c>
       <c r="C268">
         <v>13332.43956685919</v>
       </c>
       <c r="D268">
-        <v>34026.51658059047</v>
+        <v>34026.51658059046</v>
       </c>
       <c r="E268">
-        <v>58784.13198597093</v>
+        <v>58784.13198597086</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4927,16 +4927,16 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>8583.471097363503</v>
+        <v>8583.471097363501</v>
       </c>
       <c r="C269">
         <v>13332.43956685919</v>
       </c>
       <c r="D269">
-        <v>34026.51658059047</v>
+        <v>34026.51658059046</v>
       </c>
       <c r="E269">
-        <v>58784.13198597093</v>
+        <v>58784.13198597086</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4944,7 +4944,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>9609.971624445199</v>
+        <v>9609.971624445201</v>
       </c>
       <c r="C270">
         <v>16856.0027380174</v>
@@ -4953,7 +4953,7 @@
         <v>39258.13518125861</v>
       </c>
       <c r="E270">
-        <v>63798.79727323723</v>
+        <v>63798.79727323722</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4961,16 +4961,16 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>7379.533204800783</v>
+        <v>7379.533204800778</v>
       </c>
       <c r="C271">
-        <v>12793.32387970124</v>
+        <v>12793.32387970125</v>
       </c>
       <c r="D271">
-        <v>32034.53711777613</v>
+        <v>32034.53711777616</v>
       </c>
       <c r="E271">
-        <v>54334.017306317</v>
+        <v>54334.01730631701</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -4978,16 +4978,16 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>7379.533204800783</v>
+        <v>7379.533204800778</v>
       </c>
       <c r="C272">
-        <v>12793.32387970124</v>
+        <v>12793.32387970125</v>
       </c>
       <c r="D272">
-        <v>32034.53711777613</v>
+        <v>32034.53711777616</v>
       </c>
       <c r="E272">
-        <v>54334.017306317</v>
+        <v>54334.01730631701</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -4995,16 +4995,16 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>10570.94911828872</v>
+        <v>10570.94911828871</v>
       </c>
       <c r="C273">
         <v>18448.67111422203</v>
       </c>
       <c r="D273">
-        <v>41822.83059378292</v>
+        <v>41822.83059378295</v>
       </c>
       <c r="E273">
-        <v>67001.92547077293</v>
+        <v>67001.92547077288</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5012,16 +5012,16 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>10570.94911828872</v>
+        <v>10570.94911828871</v>
       </c>
       <c r="C274">
         <v>18448.67111422203</v>
       </c>
       <c r="D274">
-        <v>41822.83059378292</v>
+        <v>41822.83059378295</v>
       </c>
       <c r="E274">
-        <v>67001.92547077293</v>
+        <v>67001.92547077288</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5038,7 +5038,7 @@
         <v>36893.97981196208</v>
       </c>
       <c r="E275">
-        <v>56047.18963276842</v>
+        <v>56047.1896327684</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5052,10 +5052,10 @@
         <v>13924.69381386473</v>
       </c>
       <c r="D276">
-        <v>31803.58775675622</v>
+        <v>31803.58775675621</v>
       </c>
       <c r="E276">
-        <v>49751.04911074876</v>
+        <v>49751.04911074879</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5063,7 +5063,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>15877.5505356438</v>
+        <v>15877.55053564379</v>
       </c>
       <c r="C277">
         <v>24012.92433575613</v>
@@ -5072,7 +5072,7 @@
         <v>44178.34984397928</v>
       </c>
       <c r="E277">
-        <v>65129.26588682204</v>
+        <v>65129.26588682201</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5080,16 +5080,16 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>23275.29457962275</v>
+        <v>23275.29457962274</v>
       </c>
       <c r="C278">
-        <v>32872.9654814611</v>
+        <v>32872.96548146111</v>
       </c>
       <c r="D278">
-        <v>53644.8246621115</v>
+        <v>53644.82466211152</v>
       </c>
       <c r="E278">
-        <v>75455.36749626034</v>
+        <v>75455.36749626027</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5097,16 +5097,16 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>26075.08885794202</v>
+        <v>26075.08885794201</v>
       </c>
       <c r="C279">
-        <v>34618.67832748598</v>
+        <v>34618.67832748599</v>
       </c>
       <c r="D279">
-        <v>52616.5019544918</v>
+        <v>52616.50195449178</v>
       </c>
       <c r="E279">
-        <v>72144.71782487875</v>
+        <v>72144.71782487872</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5114,16 +5114,16 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>26075.08885794202</v>
+        <v>26075.08885794201</v>
       </c>
       <c r="C280">
-        <v>34618.67832748598</v>
+        <v>34618.67832748599</v>
       </c>
       <c r="D280">
-        <v>52616.5019544918</v>
+        <v>52616.50195449178</v>
       </c>
       <c r="E280">
-        <v>72144.71782487875</v>
+        <v>72144.71782487872</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5134,7 +5134,7 @@
         <v>9035.764054273055</v>
       </c>
       <c r="C281">
-        <v>15282.57776741508</v>
+        <v>15282.57776741509</v>
       </c>
       <c r="D281">
         <v>34307.69182973095</v>
@@ -5148,7 +5148,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>7722.231647779226</v>
+        <v>7722.231647779225</v>
       </c>
       <c r="C282">
         <v>13260.32366396349</v>
@@ -5165,7 +5165,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>7722.231647779226</v>
+        <v>7722.231647779225</v>
       </c>
       <c r="C283">
         <v>13260.32366396349</v>
@@ -5182,7 +5182,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>7722.231647779226</v>
+        <v>7722.231647779225</v>
       </c>
       <c r="C284">
         <v>13260.32366396349</v>
@@ -5205,10 +5205,10 @@
         <v>13924.69381386473</v>
       </c>
       <c r="D285">
-        <v>31803.58775675622</v>
+        <v>31803.58775675621</v>
       </c>
       <c r="E285">
-        <v>49751.04911074876</v>
+        <v>49751.04911074879</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5216,16 +5216,16 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>26075.08885794202</v>
+        <v>26075.08885794201</v>
       </c>
       <c r="C286">
-        <v>34618.67832748598</v>
+        <v>34618.67832748599</v>
       </c>
       <c r="D286">
-        <v>52616.5019544918</v>
+        <v>52616.50195449178</v>
       </c>
       <c r="E286">
-        <v>72144.71782487875</v>
+        <v>72144.71782487872</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5233,16 +5233,16 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>33354.90408109903</v>
+        <v>33354.90408109901</v>
       </c>
       <c r="C287">
-        <v>42224.92274213242</v>
+        <v>42224.92274213243</v>
       </c>
       <c r="D287">
-        <v>62332.80515971641</v>
+        <v>62332.80515971642</v>
       </c>
       <c r="E287">
-        <v>84190.963760898</v>
+        <v>84190.96376089795</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5250,16 +5250,16 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>26613.81325459283</v>
+        <v>26613.81325459284</v>
       </c>
       <c r="C288">
-        <v>36078.52467585736</v>
+        <v>36078.52467585734</v>
       </c>
       <c r="D288">
-        <v>57479.97307149293</v>
+        <v>57479.97307149295</v>
       </c>
       <c r="E288">
-        <v>80091.44331291804</v>
+        <v>80091.44331291803</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5267,16 +5267,16 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>36602.2197079912</v>
+        <v>36602.21970799119</v>
       </c>
       <c r="C289">
-        <v>45051.75307329941</v>
+        <v>45051.75307329942</v>
       </c>
       <c r="D289">
-        <v>64439.344795505</v>
+        <v>64439.34479550498</v>
       </c>
       <c r="E289">
-        <v>85643.9171953886</v>
+        <v>85643.91719538867</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5284,16 +5284,16 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>33354.90408109903</v>
+        <v>33354.90408109901</v>
       </c>
       <c r="C290">
-        <v>42224.92274213242</v>
+        <v>42224.92274213243</v>
       </c>
       <c r="D290">
-        <v>62332.80515971641</v>
+        <v>62332.80515971642</v>
       </c>
       <c r="E290">
-        <v>84190.963760898</v>
+        <v>84190.96376089795</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5307,10 +5307,10 @@
         <v>32942.42793901777</v>
       </c>
       <c r="D291">
-        <v>54371.98990498333</v>
+        <v>54371.98990498335</v>
       </c>
       <c r="E291">
-        <v>77100.11757616619</v>
+        <v>77100.11757616622</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5318,16 +5318,16 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>28495.49575304502</v>
+        <v>28495.49575304504</v>
       </c>
       <c r="C292">
-        <v>37290.76837897698</v>
+        <v>37290.76837897699</v>
       </c>
       <c r="D292">
-        <v>56893.26721799581</v>
+        <v>56893.2672179958</v>
       </c>
       <c r="E292">
-        <v>77722.4587990009</v>
+        <v>77722.45879900089</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5341,10 +5341,10 @@
         <v>37883.57480570269</v>
       </c>
       <c r="D293">
-        <v>57873.01946342801</v>
+        <v>57873.01946342799</v>
       </c>
       <c r="E293">
-        <v>78995.06336495158</v>
+        <v>78995.06336495154</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5352,16 +5352,16 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>28495.49575304502</v>
+        <v>28495.49575304504</v>
       </c>
       <c r="C294">
-        <v>37290.76837897698</v>
+        <v>37290.76837897699</v>
       </c>
       <c r="D294">
-        <v>56893.26721799581</v>
+        <v>56893.2672179958</v>
       </c>
       <c r="E294">
-        <v>77722.4587990009</v>
+        <v>77722.45879900089</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5369,16 +5369,16 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>24241.01282436475</v>
+        <v>24241.01282436476</v>
       </c>
       <c r="C295">
-        <v>31069.37726711616</v>
+        <v>31069.37726711615</v>
       </c>
       <c r="D295">
-        <v>51252.43942526475</v>
+        <v>51252.43942526478</v>
       </c>
       <c r="E295">
-        <v>73699.2488284768</v>
+        <v>73699.24882847679</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5386,16 +5386,16 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>25994.49539937351</v>
+        <v>25994.49539937352</v>
       </c>
       <c r="C296">
-        <v>33634.70509585992</v>
+        <v>33634.70509585991</v>
       </c>
       <c r="D296">
-        <v>54754.47982315985</v>
+        <v>54754.47982315987</v>
       </c>
       <c r="E296">
-        <v>77477.54138083853</v>
+        <v>77477.54138083852</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5412,7 +5412,7 @@
         <v>57389.1269195803</v>
       </c>
       <c r="E297">
-        <v>80368.99361313868</v>
+        <v>80368.99361313865</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5426,10 +5426,10 @@
         <v>30140.70585515445</v>
       </c>
       <c r="D298">
-        <v>51235.93348685707</v>
+        <v>51235.93348685711</v>
       </c>
       <c r="E298">
-        <v>74046.69641369139</v>
+        <v>74046.69641369142</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5443,10 +5443,10 @@
         <v>30865.86655987653</v>
       </c>
       <c r="D299">
-        <v>53044.86577625248</v>
+        <v>53044.8657762525</v>
       </c>
       <c r="E299">
-        <v>76241.08165243505</v>
+        <v>76241.08165243508</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5454,16 +5454,16 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>24241.01282436475</v>
+        <v>24241.01282436476</v>
       </c>
       <c r="C300">
-        <v>31069.37726711616</v>
+        <v>31069.37726711615</v>
       </c>
       <c r="D300">
-        <v>51252.43942526475</v>
+        <v>51252.43942526478</v>
       </c>
       <c r="E300">
-        <v>73699.2488284768</v>
+        <v>73699.24882847679</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5480,7 +5480,7 @@
         <v>56268.10418465899</v>
       </c>
       <c r="E301">
-        <v>79111.93458063163</v>
+        <v>79111.9345806316</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5491,7 +5491,7 @@
         <v>23340.2175006319</v>
       </c>
       <c r="C302">
-        <v>32052.18429422805</v>
+        <v>32052.18429422804</v>
       </c>
       <c r="D302">
         <v>54201.41159449906</v>
@@ -5508,7 +5508,7 @@
         <v>23340.2175006319</v>
       </c>
       <c r="C303">
-        <v>32052.18429422805</v>
+        <v>32052.18429422804</v>
       </c>
       <c r="D303">
         <v>54201.41159449906</v>
@@ -5525,13 +5525,13 @@
         <v>22029.16590696341</v>
       </c>
       <c r="C304">
-        <v>29064.60650088871</v>
+        <v>29064.6065008887</v>
       </c>
       <c r="D304">
-        <v>49739.54371277939</v>
+        <v>49739.54371277942</v>
       </c>
       <c r="E304">
-        <v>72448.46437207379</v>
+        <v>72448.46437207381</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5542,13 +5542,13 @@
         <v>22029.16590696341</v>
       </c>
       <c r="C305">
-        <v>29064.60650088871</v>
+        <v>29064.6065008887</v>
       </c>
       <c r="D305">
-        <v>49739.54371277939</v>
+        <v>49739.54371277942</v>
       </c>
       <c r="E305">
-        <v>72448.46437207379</v>
+        <v>72448.46437207381</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5556,16 +5556,16 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>24089.75032607782</v>
+        <v>24089.75032607783</v>
       </c>
       <c r="C306">
-        <v>29239.74094706829</v>
+        <v>29239.74094706828</v>
       </c>
       <c r="D306">
         <v>47452.15763319431</v>
       </c>
       <c r="E306">
-        <v>69015.03652617466</v>
+        <v>69015.03652617468</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5576,13 +5576,13 @@
         <v>22029.16590696341</v>
       </c>
       <c r="C307">
-        <v>29064.60650088871</v>
+        <v>29064.6065008887</v>
       </c>
       <c r="D307">
-        <v>49739.54371277939</v>
+        <v>49739.54371277942</v>
       </c>
       <c r="E307">
-        <v>72448.46437207379</v>
+        <v>72448.46437207381</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5590,7 +5590,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>24366.37514239403</v>
+        <v>24366.37514239404</v>
       </c>
       <c r="C308">
         <v>29921.55223944087</v>
@@ -5599,7 +5599,7 @@
         <v>48780.77948388846</v>
       </c>
       <c r="E308">
-        <v>70755.13461654048</v>
+        <v>70755.13461654047</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5607,16 +5607,16 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>24089.75032607782</v>
+        <v>24089.75032607783</v>
       </c>
       <c r="C309">
-        <v>29239.74094706829</v>
+        <v>29239.74094706828</v>
       </c>
       <c r="D309">
         <v>47452.15763319431</v>
       </c>
       <c r="E309">
-        <v>69015.03652617466</v>
+        <v>69015.03652617468</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5633,7 +5633,7 @@
         <v>51209.52191669289</v>
       </c>
       <c r="E310">
-        <v>74202.32832063896</v>
+        <v>74202.32832063898</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5641,16 +5641,16 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>10457.5080781849</v>
+        <v>10457.50807818489</v>
       </c>
       <c r="C311">
-        <v>15361.6908284559</v>
+        <v>15361.69082845589</v>
       </c>
       <c r="D311">
-        <v>33202.60466103196</v>
+        <v>33202.60466103195</v>
       </c>
       <c r="E311">
-        <v>54264.1669395494</v>
+        <v>54264.16693954936</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5658,16 +5658,16 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>10457.5080781849</v>
+        <v>10457.50807818489</v>
       </c>
       <c r="C312">
-        <v>15361.6908284559</v>
+        <v>15361.69082845589</v>
       </c>
       <c r="D312">
-        <v>33202.60466103196</v>
+        <v>33202.60466103195</v>
       </c>
       <c r="E312">
-        <v>54264.1669395494</v>
+        <v>54264.16693954936</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5675,16 +5675,16 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>10457.5080781849</v>
+        <v>10457.50807818489</v>
       </c>
       <c r="C313">
-        <v>15361.6908284559</v>
+        <v>15361.69082845589</v>
       </c>
       <c r="D313">
-        <v>33202.60466103196</v>
+        <v>33202.60466103195</v>
       </c>
       <c r="E313">
-        <v>54264.1669395494</v>
+        <v>54264.16693954936</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5692,16 +5692,16 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>10457.5080781849</v>
+        <v>10457.50807818489</v>
       </c>
       <c r="C314">
-        <v>15361.6908284559</v>
+        <v>15361.69082845589</v>
       </c>
       <c r="D314">
-        <v>33202.60466103196</v>
+        <v>33202.60466103195</v>
       </c>
       <c r="E314">
-        <v>54264.1669395494</v>
+        <v>54264.16693954936</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5709,16 +5709,16 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>37193.94764298981</v>
+        <v>37193.94764298983</v>
       </c>
       <c r="C315">
         <v>46083.62075109776</v>
       </c>
       <c r="D315">
-        <v>65708.19308940296</v>
+        <v>65708.19308940299</v>
       </c>
       <c r="E315">
-        <v>86349.96606950775</v>
+        <v>86349.96606950778</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5729,13 +5729,13 @@
         <v>43477.17967719099</v>
       </c>
       <c r="C316">
-        <v>52210.00637523096</v>
+        <v>52210.00637523095</v>
       </c>
       <c r="D316">
-        <v>70681.41718119867</v>
+        <v>70681.41718119872</v>
       </c>
       <c r="E316">
-        <v>89950.46236956539</v>
+        <v>89950.46236956542</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5743,16 +5743,16 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>43695.7028784267</v>
+        <v>43695.70287842669</v>
       </c>
       <c r="C317">
-        <v>51735.06963092892</v>
+        <v>51735.06963092895</v>
       </c>
       <c r="D317">
-        <v>69664.29061911849</v>
+        <v>69664.29061911847</v>
       </c>
       <c r="E317">
-        <v>88955.96901511149</v>
+        <v>88955.96901511156</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5763,13 +5763,13 @@
         <v>40642.15735177841</v>
       </c>
       <c r="C318">
-        <v>49083.16273610358</v>
+        <v>49083.16273610355</v>
       </c>
       <c r="D318">
-        <v>68062.30322301839</v>
+        <v>68062.30322301842</v>
       </c>
       <c r="E318">
-        <v>88175.47810140788</v>
+        <v>88175.47810140789</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5777,13 +5777,13 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>36143.67491063262</v>
+        <v>36143.67491063264</v>
       </c>
       <c r="C319">
         <v>44182.1672969613</v>
       </c>
       <c r="D319">
-        <v>63134.43474715981</v>
+        <v>63134.4347471598</v>
       </c>
       <c r="E319">
         <v>83758.29340920039</v>
@@ -5794,16 +5794,16 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>37254.34227188674</v>
+        <v>37254.34227188672</v>
       </c>
       <c r="C320">
-        <v>45822.02108700445</v>
+        <v>45822.02108700446</v>
       </c>
       <c r="D320">
-        <v>65112.3537300532</v>
+        <v>65112.35373005321</v>
       </c>
       <c r="E320">
-        <v>85774.25367093457</v>
+        <v>85774.25367093462</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5814,13 +5814,13 @@
         <v>40514.13334990664</v>
       </c>
       <c r="C321">
-        <v>48858.4300552955</v>
+        <v>48858.43005529548</v>
       </c>
       <c r="D321">
-        <v>67518.06354999352</v>
+        <v>67518.06354999355</v>
       </c>
       <c r="E321">
-        <v>87524.56283269415</v>
+        <v>87524.5628326942</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5831,13 +5831,13 @@
         <v>35042.56164061992</v>
       </c>
       <c r="C322">
-        <v>44221.02944668843</v>
+        <v>44221.02944668841</v>
       </c>
       <c r="D322">
-        <v>64499.35052235333</v>
+        <v>64499.35052235331</v>
       </c>
       <c r="E322">
-        <v>85645.03563997991</v>
+        <v>85645.03563997992</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5845,16 +5845,16 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>37015.11762741621</v>
+        <v>37015.1176274162</v>
       </c>
       <c r="C323">
-        <v>45133.66412182402</v>
+        <v>45133.66412182401</v>
       </c>
       <c r="D323">
-        <v>64225.45864601241</v>
+        <v>64225.4586460124</v>
       </c>
       <c r="E323">
-        <v>84965.3385419346</v>
+        <v>84965.33854193465</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5862,16 +5862,16 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>37015.11762741621</v>
+        <v>37015.1176274162</v>
       </c>
       <c r="C324">
-        <v>45133.66412182402</v>
+        <v>45133.66412182401</v>
       </c>
       <c r="D324">
-        <v>64225.45864601241</v>
+        <v>64225.4586460124</v>
       </c>
       <c r="E324">
-        <v>84965.3385419346</v>
+        <v>84965.33854193465</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5879,16 +5879,16 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>37015.11762741621</v>
+        <v>37015.1176274162</v>
       </c>
       <c r="C325">
-        <v>45133.66412182402</v>
+        <v>45133.66412182401</v>
       </c>
       <c r="D325">
-        <v>64225.45864601241</v>
+        <v>64225.4586460124</v>
       </c>
       <c r="E325">
-        <v>84965.3385419346</v>
+        <v>84965.33854193465</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5896,10 +5896,10 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>42518.39090502851</v>
+        <v>42518.3909050285</v>
       </c>
       <c r="C326">
-        <v>50984.8992369085</v>
+        <v>50984.89923690854</v>
       </c>
       <c r="D326">
         <v>69146.25726616668</v>
@@ -5919,10 +5919,10 @@
         <v>42614.74198391167</v>
       </c>
       <c r="D327">
-        <v>62597.69406856945</v>
+        <v>62597.69406856942</v>
       </c>
       <c r="E327">
-        <v>83622.9380340452</v>
+        <v>83622.93803404519</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5936,10 +5936,10 @@
         <v>42614.74198391167</v>
       </c>
       <c r="D328">
-        <v>62597.69406856945</v>
+        <v>62597.69406856942</v>
       </c>
       <c r="E328">
-        <v>83622.9380340452</v>
+        <v>83622.93803404519</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5947,16 +5947,16 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>30857.8069463079</v>
+        <v>30857.80694630789</v>
       </c>
       <c r="C329">
-        <v>39760.820912143</v>
+        <v>39760.82091214301</v>
       </c>
       <c r="D329">
-        <v>60226.79013586406</v>
+        <v>60226.790135864</v>
       </c>
       <c r="E329">
-        <v>81851.59608689818</v>
+        <v>81851.59608689816</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5970,10 +5970,10 @@
         <v>42614.74198391167</v>
       </c>
       <c r="D330">
-        <v>62597.69406856945</v>
+        <v>62597.69406856942</v>
       </c>
       <c r="E330">
-        <v>83622.9380340452</v>
+        <v>83622.93803404519</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5981,16 +5981,16 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>32882.08672727406</v>
+        <v>32882.08672727404</v>
       </c>
       <c r="C331">
-        <v>41581.36104887854</v>
+        <v>41581.36104887855</v>
       </c>
       <c r="D331">
-        <v>61271.08081626165</v>
+        <v>61271.08081626167</v>
       </c>
       <c r="E331">
-        <v>82267.0312532621</v>
+        <v>82267.03125326207</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5998,16 +5998,16 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>38087.08383493016</v>
+        <v>38087.08383493018</v>
       </c>
       <c r="C332">
-        <v>46929.5053579812</v>
+        <v>46929.50535798121</v>
       </c>
       <c r="D332">
         <v>67295.87903392142</v>
       </c>
       <c r="E332">
-        <v>87939.07187883684</v>
+        <v>87939.0718788368</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6015,16 +6015,16 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>39730.89169858566</v>
+        <v>39730.89169858565</v>
       </c>
       <c r="C333">
-        <v>49025.77403633707</v>
+        <v>49025.77403633708</v>
       </c>
       <c r="D333">
         <v>69881.30118930127</v>
       </c>
       <c r="E333">
-        <v>89982.30690453154</v>
+        <v>89982.30690453152</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6038,7 +6038,7 @@
         <v>53721.23125177235</v>
       </c>
       <c r="D334">
-        <v>74340.84209664675</v>
+        <v>74340.84209664674</v>
       </c>
       <c r="E334">
         <v>93205.63219818137</v>
@@ -6052,13 +6052,13 @@
         <v>40088.12606994381</v>
       </c>
       <c r="C335">
-        <v>50519.11333096974</v>
+        <v>50519.11333096971</v>
       </c>
       <c r="D335">
-        <v>71924.2769406514</v>
+        <v>71924.27694065143</v>
       </c>
       <c r="E335">
-        <v>91627.15184495461</v>
+        <v>91627.1518449546</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6069,13 +6069,13 @@
         <v>35766.5079857895</v>
       </c>
       <c r="C336">
-        <v>44060.63928367097</v>
+        <v>44060.63928367098</v>
       </c>
       <c r="D336">
-        <v>64195.62877231772</v>
+        <v>64195.62877231773</v>
       </c>
       <c r="E336">
-        <v>85184.85208671665</v>
+        <v>85184.85208671671</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6083,7 +6083,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>15615.41249014367</v>
+        <v>15615.41249014366</v>
       </c>
       <c r="C337">
         <v>21904.29719864938</v>
@@ -6092,7 +6092,7 @@
         <v>35223.19669591894</v>
       </c>
       <c r="E337">
-        <v>48399.04720642322</v>
+        <v>48399.04720642319</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6103,13 +6103,13 @@
         <v>13786.79256257372</v>
       </c>
       <c r="C338">
-        <v>19976.12700843517</v>
+        <v>19976.12700843516</v>
       </c>
       <c r="D338">
         <v>33779.16818418165</v>
       </c>
       <c r="E338">
-        <v>47207.21675157469</v>
+        <v>47207.21675157471</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6117,7 +6117,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>15615.41249014367</v>
+        <v>15615.41249014366</v>
       </c>
       <c r="C339">
         <v>21904.29719864938</v>
@@ -6126,7 +6126,7 @@
         <v>35223.19669591894</v>
       </c>
       <c r="E339">
-        <v>48399.04720642322</v>
+        <v>48399.04720642319</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6140,10 +6140,10 @@
         <v>18775.50378288611</v>
       </c>
       <c r="D340">
-        <v>32396.80094512816</v>
+        <v>32396.80094512814</v>
       </c>
       <c r="E340">
-        <v>45294.35526265304</v>
+        <v>45294.35526265303</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6157,10 +6157,10 @@
         <v>18775.50378288611</v>
       </c>
       <c r="D341">
-        <v>32396.80094512816</v>
+        <v>32396.80094512814</v>
       </c>
       <c r="E341">
-        <v>45294.35526265304</v>
+        <v>45294.35526265303</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6177,7 +6177,7 @@
         <v>36003.15993750257</v>
       </c>
       <c r="E342">
-        <v>50481.7593832184</v>
+        <v>50481.75938321839</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6194,7 +6194,7 @@
         <v>36003.15993750257</v>
       </c>
       <c r="E343">
-        <v>50481.7593832184</v>
+        <v>50481.75938321839</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6208,10 +6208,10 @@
         <v>18775.50378288611</v>
       </c>
       <c r="D344">
-        <v>32396.80094512816</v>
+        <v>32396.80094512814</v>
       </c>
       <c r="E344">
-        <v>45294.35526265304</v>
+        <v>45294.35526265303</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6219,16 +6219,16 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>9105.816407554748</v>
+        <v>9105.81640755475</v>
       </c>
       <c r="C345">
         <v>14330.53818644812</v>
       </c>
       <c r="D345">
-        <v>27951.00970732668</v>
+        <v>27951.00970732669</v>
       </c>
       <c r="E345">
-        <v>40260.00806218486</v>
+        <v>40260.00806218485</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6236,16 +6236,16 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>9105.816407554748</v>
+        <v>9105.81640755475</v>
       </c>
       <c r="C346">
         <v>14330.53818644812</v>
       </c>
       <c r="D346">
-        <v>27951.00970732668</v>
+        <v>27951.00970732669</v>
       </c>
       <c r="E346">
-        <v>40260.00806218486</v>
+        <v>40260.00806218485</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6253,16 +6253,16 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>9105.816407554748</v>
+        <v>9105.81640755475</v>
       </c>
       <c r="C347">
         <v>14330.53818644812</v>
       </c>
       <c r="D347">
-        <v>27951.00970732668</v>
+        <v>27951.00970732669</v>
       </c>
       <c r="E347">
-        <v>40260.00806218486</v>
+        <v>40260.00806218485</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6270,16 +6270,16 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>17082.63484829593</v>
+        <v>17082.63484829592</v>
       </c>
       <c r="C348">
-        <v>23267.72157719205</v>
+        <v>23267.72157719204</v>
       </c>
       <c r="D348">
-        <v>35996.70792302353</v>
+        <v>35996.70792302354</v>
       </c>
       <c r="E348">
-        <v>48462.35728052929</v>
+        <v>48462.35728052924</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6287,16 +6287,16 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>17082.63484829593</v>
+        <v>17082.63484829592</v>
       </c>
       <c r="C349">
-        <v>23267.72157719205</v>
+        <v>23267.72157719204</v>
       </c>
       <c r="D349">
-        <v>35996.70792302353</v>
+        <v>35996.70792302354</v>
       </c>
       <c r="E349">
-        <v>48462.35728052929</v>
+        <v>48462.35728052924</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6304,16 +6304,16 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>17082.63484829593</v>
+        <v>17082.63484829592</v>
       </c>
       <c r="C350">
-        <v>23267.72157719205</v>
+        <v>23267.72157719204</v>
       </c>
       <c r="D350">
-        <v>35996.70792302353</v>
+        <v>35996.70792302354</v>
       </c>
       <c r="E350">
-        <v>48462.35728052929</v>
+        <v>48462.35728052924</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6321,7 +6321,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>7350.533261180211</v>
+        <v>7350.533261180213</v>
       </c>
       <c r="C351">
         <v>12853.06533114495</v>
@@ -6330,7 +6330,7 @@
         <v>26497.85517542492</v>
       </c>
       <c r="E351">
-        <v>37665.18946901093</v>
+        <v>37665.18946901095</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6338,7 +6338,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>7350.533261180211</v>
+        <v>7350.533261180213</v>
       </c>
       <c r="C352">
         <v>12853.06533114495</v>
@@ -6347,7 +6347,7 @@
         <v>26497.85517542492</v>
       </c>
       <c r="E352">
-        <v>37665.18946901093</v>
+        <v>37665.18946901095</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6355,16 +6355,16 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>23240.964399603</v>
+        <v>23240.96439960301</v>
       </c>
       <c r="C353">
         <v>30224.03706075337</v>
       </c>
       <c r="D353">
-        <v>44141.46229055388</v>
+        <v>44141.46229055387</v>
       </c>
       <c r="E353">
-        <v>59806.7294991247</v>
+        <v>59806.72949912469</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6375,7 +6375,7 @@
         <v>21335.98247309257</v>
       </c>
       <c r="C354">
-        <v>26957.04358699191</v>
+        <v>26957.0435869919</v>
       </c>
       <c r="D354">
         <v>38644.68736414806</v>
@@ -6389,16 +6389,16 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>23240.964399603</v>
+        <v>23240.96439960301</v>
       </c>
       <c r="C355">
         <v>30224.03706075337</v>
       </c>
       <c r="D355">
-        <v>44141.46229055388</v>
+        <v>44141.46229055387</v>
       </c>
       <c r="E355">
-        <v>59806.7294991247</v>
+        <v>59806.72949912469</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6406,10 +6406,10 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>16603.18816860961</v>
+        <v>16603.18816860962</v>
       </c>
       <c r="C356">
-        <v>22886.61185963218</v>
+        <v>22886.61185963217</v>
       </c>
       <c r="D356">
         <v>35684.34433485429</v>
@@ -6423,10 +6423,10 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>16603.18816860961</v>
+        <v>16603.18816860962</v>
       </c>
       <c r="C357">
-        <v>22886.61185963218</v>
+        <v>22886.61185963217</v>
       </c>
       <c r="D357">
         <v>35684.34433485429</v>
@@ -6440,10 +6440,10 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>16603.18816860961</v>
+        <v>16603.18816860962</v>
       </c>
       <c r="C358">
-        <v>22886.61185963218</v>
+        <v>22886.61185963217</v>
       </c>
       <c r="D358">
         <v>35684.34433485429</v>
@@ -6457,16 +6457,16 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>8035.861610124609</v>
+        <v>8035.86161012461</v>
       </c>
       <c r="C359">
-        <v>13553.73019386196</v>
+        <v>13553.73019386197</v>
       </c>
       <c r="D359">
-        <v>27384.5655615991</v>
+        <v>27384.56556159909</v>
       </c>
       <c r="E359">
-        <v>38920.6404451943</v>
+        <v>38920.64044519431</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6474,16 +6474,16 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>8035.861610124609</v>
+        <v>8035.86161012461</v>
       </c>
       <c r="C360">
-        <v>13553.73019386196</v>
+        <v>13553.73019386197</v>
       </c>
       <c r="D360">
-        <v>27384.5655615991</v>
+        <v>27384.56556159909</v>
       </c>
       <c r="E360">
-        <v>38920.6404451943</v>
+        <v>38920.64044519431</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6494,10 +6494,10 @@
         <v>22483.80193001381</v>
       </c>
       <c r="C361">
-        <v>31710.39644544693</v>
+        <v>31710.39644544695</v>
       </c>
       <c r="D361">
-        <v>56062.27570344567</v>
+        <v>56062.2757034457</v>
       </c>
       <c r="E361">
         <v>79783.50229519035</v>
@@ -6508,13 +6508,13 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>18816.55269338282</v>
+        <v>18816.55269338283</v>
       </c>
       <c r="C362">
-        <v>28369.30993558616</v>
+        <v>28369.30993558617</v>
       </c>
       <c r="D362">
-        <v>53354.83971613047</v>
+        <v>53354.83971613044</v>
       </c>
       <c r="E362">
         <v>77790.99400422603</v>
@@ -6531,10 +6531,10 @@
         <v>27057.5990106028</v>
       </c>
       <c r="D363">
-        <v>49905.59713221766</v>
+        <v>49905.59713221768</v>
       </c>
       <c r="E363">
-        <v>74270.6289327374</v>
+        <v>74270.62893273735</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6545,13 +6545,13 @@
         <v>17788.90276479596</v>
       </c>
       <c r="C364">
-        <v>26905.9938010779</v>
+        <v>26905.99380107789</v>
       </c>
       <c r="D364">
-        <v>51898.48464146091</v>
+        <v>51898.48464146092</v>
       </c>
       <c r="E364">
-        <v>77398.07554102504</v>
+        <v>77398.07554102501</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6562,13 +6562,13 @@
         <v>17788.90276479596</v>
       </c>
       <c r="C365">
-        <v>26905.9938010779</v>
+        <v>26905.99380107789</v>
       </c>
       <c r="D365">
-        <v>51898.48464146091</v>
+        <v>51898.48464146092</v>
       </c>
       <c r="E365">
-        <v>77398.07554102504</v>
+        <v>77398.07554102501</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6576,16 +6576,16 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>12743.03692782356</v>
+        <v>12743.03692782357</v>
       </c>
       <c r="C366">
-        <v>21022.73125688974</v>
+        <v>21022.73125688973</v>
       </c>
       <c r="D366">
-        <v>45457.27865206603</v>
+        <v>45457.27865206604</v>
       </c>
       <c r="E366">
-        <v>71416.25517200929</v>
+        <v>71416.25517200926</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6593,16 +6593,16 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>12743.03692782356</v>
+        <v>12743.03692782357</v>
       </c>
       <c r="C367">
-        <v>21022.73125688974</v>
+        <v>21022.73125688973</v>
       </c>
       <c r="D367">
-        <v>45457.27865206603</v>
+        <v>45457.27865206604</v>
       </c>
       <c r="E367">
-        <v>71416.25517200929</v>
+        <v>71416.25517200926</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6610,7 +6610,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>13921.81079454021</v>
+        <v>13921.81079454022</v>
       </c>
       <c r="C368">
         <v>21842.3722679047</v>
@@ -6619,7 +6619,7 @@
         <v>46134.68387031731</v>
       </c>
       <c r="E368">
-        <v>72032.07993303132</v>
+        <v>72032.07993303127</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6627,16 +6627,16 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>12743.03692782356</v>
+        <v>12743.03692782357</v>
       </c>
       <c r="C369">
-        <v>21022.73125688974</v>
+        <v>21022.73125688973</v>
       </c>
       <c r="D369">
-        <v>45457.27865206603</v>
+        <v>45457.27865206604</v>
       </c>
       <c r="E369">
-        <v>71416.25517200929</v>
+        <v>71416.25517200926</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6653,7 +6653,7 @@
         <v>41616.54630912325</v>
       </c>
       <c r="E370">
-        <v>66588.0491353212</v>
+        <v>66588.04913532117</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6670,7 +6670,7 @@
         <v>41616.54630912325</v>
       </c>
       <c r="E371">
-        <v>66588.0491353212</v>
+        <v>66588.04913532117</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6687,7 +6687,7 @@
         <v>41616.54630912325</v>
       </c>
       <c r="E372">
-        <v>66588.0491353212</v>
+        <v>66588.04913532117</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6698,10 +6698,10 @@
         <v>23926.91909972223</v>
       </c>
       <c r="C373">
-        <v>31485.30170804715</v>
+        <v>31485.30170804717</v>
       </c>
       <c r="D373">
-        <v>47974.58127072014</v>
+        <v>47974.58127072012</v>
       </c>
       <c r="E373">
         <v>65544.08536388323</v>
@@ -6712,16 +6712,16 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>20276.64882757682</v>
+        <v>20276.64882757681</v>
       </c>
       <c r="C374">
-        <v>26800.23351981502</v>
+        <v>26800.23351981503</v>
       </c>
       <c r="D374">
         <v>42114.11828493648</v>
       </c>
       <c r="E374">
-        <v>58856.29950691416</v>
+        <v>58856.29950691414</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6732,10 +6732,10 @@
         <v>23926.91909972223</v>
       </c>
       <c r="C375">
-        <v>31485.30170804715</v>
+        <v>31485.30170804717</v>
       </c>
       <c r="D375">
-        <v>47974.58127072014</v>
+        <v>47974.58127072012</v>
       </c>
       <c r="E375">
         <v>65544.08536388323</v>
@@ -6752,10 +6752,10 @@
         <v>26844.46383771004</v>
       </c>
       <c r="D376">
-        <v>42605.3404969791</v>
+        <v>42605.34049697912</v>
       </c>
       <c r="E376">
-        <v>59796.49191657378</v>
+        <v>59796.49191657376</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6769,10 +6769,10 @@
         <v>26844.46383771004</v>
       </c>
       <c r="D377">
-        <v>42605.3404969791</v>
+        <v>42605.34049697912</v>
       </c>
       <c r="E377">
-        <v>59796.49191657378</v>
+        <v>59796.49191657376</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6786,10 +6786,10 @@
         <v>36412.71132404615</v>
       </c>
       <c r="D378">
-        <v>53406.01606654176</v>
+        <v>53406.01606654178</v>
       </c>
       <c r="E378">
-        <v>71509.357682192</v>
+        <v>71509.35768219199</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6803,10 +6803,10 @@
         <v>36412.71132404615</v>
       </c>
       <c r="D379">
-        <v>53406.01606654176</v>
+        <v>53406.01606654178</v>
       </c>
       <c r="E379">
-        <v>71509.357682192</v>
+        <v>71509.35768219199</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6820,10 +6820,10 @@
         <v>36412.71132404615</v>
       </c>
       <c r="D380">
-        <v>53406.01606654176</v>
+        <v>53406.01606654178</v>
       </c>
       <c r="E380">
-        <v>71509.357682192</v>
+        <v>71509.35768219199</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6837,10 +6837,10 @@
         <v>36412.71132404615</v>
       </c>
       <c r="D381">
-        <v>53406.01606654176</v>
+        <v>53406.01606654178</v>
       </c>
       <c r="E381">
-        <v>71509.357682192</v>
+        <v>71509.35768219199</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6857,7 +6857,7 @@
         <v>49431.02529119974</v>
       </c>
       <c r="E382">
-        <v>67287.52393810714</v>
+        <v>67287.52393810713</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6865,13 +6865,13 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>26884.62638401178</v>
+        <v>26884.62638401176</v>
       </c>
       <c r="C383">
-        <v>35086.61214375924</v>
+        <v>35086.61214375925</v>
       </c>
       <c r="D383">
-        <v>53210.17880544659</v>
+        <v>53210.17880544662</v>
       </c>
       <c r="E383">
         <v>72313.19994288309</v>
@@ -6885,13 +6885,13 @@
         <v>23987.60865567705</v>
       </c>
       <c r="C384">
-        <v>31606.28528377945</v>
+        <v>31606.28528377946</v>
       </c>
       <c r="D384">
-        <v>49325.88783173704</v>
+        <v>49325.88783173705</v>
       </c>
       <c r="E384">
-        <v>68260.75661898479</v>
+        <v>68260.75661898477</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6899,16 +6899,16 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>32368.27653721619</v>
+        <v>32368.27653721618</v>
       </c>
       <c r="C385">
-        <v>42294.87755336383</v>
+        <v>42294.87755336384</v>
       </c>
       <c r="D385">
-        <v>60986.40302823639</v>
+        <v>60986.4030282364</v>
       </c>
       <c r="E385">
-        <v>80032.06694553136</v>
+        <v>80032.06694553138</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6919,13 +6919,13 @@
         <v>18576.32647063324</v>
       </c>
       <c r="C386">
-        <v>26286.83960917071</v>
+        <v>26286.83960917072</v>
       </c>
       <c r="D386">
-        <v>45336.18056347816</v>
+        <v>45336.18056347821</v>
       </c>
       <c r="E386">
-        <v>65355.96069481085</v>
+        <v>65355.96069481089</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6936,13 +6936,13 @@
         <v>18576.32647063324</v>
       </c>
       <c r="C387">
-        <v>26286.83960917071</v>
+        <v>26286.83960917072</v>
       </c>
       <c r="D387">
-        <v>45336.18056347816</v>
+        <v>45336.18056347821</v>
       </c>
       <c r="E387">
-        <v>65355.96069481085</v>
+        <v>65355.96069481089</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6950,7 +6950,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>6094.346830339098</v>
+        <v>6094.346830339101</v>
       </c>
       <c r="C388">
         <v>9287.916656266476</v>
@@ -6959,7 +6959,7 @@
         <v>23565.7207255666</v>
       </c>
       <c r="E388">
-        <v>41288.0704853253</v>
+        <v>41288.07048532528</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -6973,10 +6973,10 @@
         <v>8666.211185427783</v>
       </c>
       <c r="D389">
-        <v>24967.86266099896</v>
+        <v>24967.86266099897</v>
       </c>
       <c r="E389">
-        <v>45143.35408243208</v>
+        <v>45143.35408243212</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -6990,10 +6990,10 @@
         <v>8666.211185427783</v>
       </c>
       <c r="D390">
-        <v>24967.86266099896</v>
+        <v>24967.86266099897</v>
       </c>
       <c r="E390">
-        <v>45143.35408243208</v>
+        <v>45143.35408243212</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7001,7 +7001,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>6094.346830339098</v>
+        <v>6094.346830339101</v>
       </c>
       <c r="C391">
         <v>9287.916656266476</v>
@@ -7010,7 +7010,7 @@
         <v>23565.7207255666</v>
       </c>
       <c r="E391">
-        <v>41288.0704853253</v>
+        <v>41288.07048532528</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7024,10 +7024,10 @@
         <v>8666.211185427783</v>
       </c>
       <c r="D392">
-        <v>24967.86266099896</v>
+        <v>24967.86266099897</v>
       </c>
       <c r="E392">
-        <v>45143.35408243208</v>
+        <v>45143.35408243212</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7035,13 +7035,13 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>4573.687800849509</v>
+        <v>4573.68780084951</v>
       </c>
       <c r="C393">
-        <v>7280.926621649302</v>
+        <v>7280.926621649303</v>
       </c>
       <c r="D393">
-        <v>19055.80001237397</v>
+        <v>19055.80001237396</v>
       </c>
       <c r="E393">
         <v>32844.56400914762</v>
@@ -7052,13 +7052,13 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>4573.687800849509</v>
+        <v>4573.68780084951</v>
       </c>
       <c r="C394">
-        <v>7280.926621649302</v>
+        <v>7280.926621649303</v>
       </c>
       <c r="D394">
-        <v>19055.80001237397</v>
+        <v>19055.80001237396</v>
       </c>
       <c r="E394">
         <v>32844.56400914762</v>
@@ -7069,10 +7069,10 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>5228.599556196949</v>
+        <v>5228.599556196952</v>
       </c>
       <c r="C395">
-        <v>8160.654737402469</v>
+        <v>8160.654737402466</v>
       </c>
       <c r="D395">
         <v>20375.03356155243</v>
@@ -7086,10 +7086,10 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>5228.599556196949</v>
+        <v>5228.599556196952</v>
       </c>
       <c r="C396">
-        <v>8160.654737402469</v>
+        <v>8160.654737402466</v>
       </c>
       <c r="D396">
         <v>20375.03356155243</v>
@@ -7103,16 +7103,16 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>6217.458710879323</v>
+        <v>6217.458710879321</v>
       </c>
       <c r="C397">
-        <v>8988.997050074413</v>
+        <v>8988.997050074408</v>
       </c>
       <c r="D397">
-        <v>21525.45183747551</v>
+        <v>21525.4518374755</v>
       </c>
       <c r="E397">
-        <v>36891.24166135715</v>
+        <v>36891.24166135712</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7120,16 +7120,16 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>6217.458710879323</v>
+        <v>6217.458710879321</v>
       </c>
       <c r="C398">
-        <v>8988.997050074413</v>
+        <v>8988.997050074408</v>
       </c>
       <c r="D398">
-        <v>21525.45183747551</v>
+        <v>21525.4518374755</v>
       </c>
       <c r="E398">
-        <v>36891.24166135715</v>
+        <v>36891.24166135712</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7137,16 +7137,16 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>4705.043927875027</v>
+        <v>4705.043927875029</v>
       </c>
       <c r="C399">
         <v>8071.718144684603</v>
       </c>
       <c r="D399">
-        <v>25841.18005945463</v>
+        <v>25841.18005945461</v>
       </c>
       <c r="E399">
-        <v>47949.91894493542</v>
+        <v>47949.91894493544</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7154,16 +7154,16 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>4354.533499164838</v>
+        <v>4354.533499164837</v>
       </c>
       <c r="C400">
-        <v>7694.581703146546</v>
+        <v>7694.581703146549</v>
       </c>
       <c r="D400">
-        <v>25540.52744147309</v>
+        <v>25540.52744147308</v>
       </c>
       <c r="E400">
-        <v>47850.67794418331</v>
+        <v>47850.67794418329</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7171,16 +7171,16 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>4705.043927875027</v>
+        <v>4705.043927875029</v>
       </c>
       <c r="C401">
         <v>8071.718144684603</v>
       </c>
       <c r="D401">
-        <v>25841.18005945463</v>
+        <v>25841.18005945461</v>
       </c>
       <c r="E401">
-        <v>47949.91894493542</v>
+        <v>47949.91894493544</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7194,10 +7194,10 @@
         <v>7497.369312058089</v>
       </c>
       <c r="D402">
-        <v>23766.53162286016</v>
+        <v>23766.53162286017</v>
       </c>
       <c r="E402">
-        <v>44137.44222898308</v>
+        <v>44137.4422289831</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7205,16 +7205,16 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>4354.533499164838</v>
+        <v>4354.533499164837</v>
       </c>
       <c r="C403">
-        <v>7694.581703146546</v>
+        <v>7694.581703146549</v>
       </c>
       <c r="D403">
-        <v>25540.52744147309</v>
+        <v>25540.52744147308</v>
       </c>
       <c r="E403">
-        <v>47850.67794418331</v>
+        <v>47850.67794418329</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7222,16 +7222,16 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>3734.820046764048</v>
+        <v>3734.820046764049</v>
       </c>
       <c r="C404">
-        <v>6599.342604749392</v>
+        <v>6599.342604749393</v>
       </c>
       <c r="D404">
-        <v>22931.29064531655</v>
+        <v>22931.29064531656</v>
       </c>
       <c r="E404">
-        <v>43239.53776138718</v>
+        <v>43239.53776138717</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7239,16 +7239,16 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>3734.820046764048</v>
+        <v>3734.820046764049</v>
       </c>
       <c r="C405">
-        <v>6599.342604749392</v>
+        <v>6599.342604749393</v>
       </c>
       <c r="D405">
-        <v>22931.29064531655</v>
+        <v>22931.29064531656</v>
       </c>
       <c r="E405">
-        <v>43239.53776138718</v>
+        <v>43239.53776138717</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7256,16 +7256,16 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>3734.820046764048</v>
+        <v>3734.820046764049</v>
       </c>
       <c r="C406">
-        <v>6599.342604749392</v>
+        <v>6599.342604749393</v>
       </c>
       <c r="D406">
-        <v>22931.29064531655</v>
+        <v>22931.29064531656</v>
       </c>
       <c r="E406">
-        <v>43239.53776138718</v>
+        <v>43239.53776138717</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7273,16 +7273,16 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>3191.254563857588</v>
+        <v>3191.254563857587</v>
       </c>
       <c r="C407">
         <v>5777.590689771117</v>
       </c>
       <c r="D407">
-        <v>21232.96938802516</v>
+        <v>21232.96938802515</v>
       </c>
       <c r="E407">
-        <v>40401.41913761549</v>
+        <v>40401.41913761547</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7290,16 +7290,16 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>3191.254563857588</v>
+        <v>3191.254563857587</v>
       </c>
       <c r="C408">
         <v>5777.590689771117</v>
       </c>
       <c r="D408">
-        <v>21232.96938802516</v>
+        <v>21232.96938802515</v>
       </c>
       <c r="E408">
-        <v>40401.41913761549</v>
+        <v>40401.41913761547</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7307,16 +7307,16 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>3191.254563857588</v>
+        <v>3191.254563857587</v>
       </c>
       <c r="C409">
         <v>5777.590689771117</v>
       </c>
       <c r="D409">
-        <v>21232.96938802516</v>
+        <v>21232.96938802515</v>
       </c>
       <c r="E409">
-        <v>40401.41913761549</v>
+        <v>40401.41913761547</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7324,16 +7324,16 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>9424.629858633647</v>
+        <v>9424.629858633643</v>
       </c>
       <c r="C410">
-        <v>16948.12121027473</v>
+        <v>16948.12121027474</v>
       </c>
       <c r="D410">
-        <v>41197.46428481652</v>
+        <v>41197.46428481655</v>
       </c>
       <c r="E410">
-        <v>68105.03803603623</v>
+        <v>68105.03803603626</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7341,16 +7341,16 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>7571.070222308169</v>
+        <v>7571.070222308172</v>
       </c>
       <c r="C411">
-        <v>13513.08886232671</v>
+        <v>13513.0888623267</v>
       </c>
       <c r="D411">
-        <v>35464.49649595631</v>
+        <v>35464.4964959563</v>
       </c>
       <c r="E411">
-        <v>61254.09566811952</v>
+        <v>61254.09566811951</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7358,16 +7358,16 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>7571.070222308169</v>
+        <v>7571.070222308172</v>
       </c>
       <c r="C412">
-        <v>13513.08886232671</v>
+        <v>13513.0888623267</v>
       </c>
       <c r="D412">
-        <v>35464.49649595631</v>
+        <v>35464.4964959563</v>
       </c>
       <c r="E412">
-        <v>61254.09566811952</v>
+        <v>61254.09566811951</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7375,16 +7375,16 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>7718.578563259219</v>
+        <v>7718.578563259222</v>
       </c>
       <c r="C413">
-        <v>13827.44978588838</v>
+        <v>13827.44978588839</v>
       </c>
       <c r="D413">
-        <v>35591.44204062724</v>
+        <v>35591.44204062725</v>
       </c>
       <c r="E413">
-        <v>60438.11591438182</v>
+        <v>60438.11591438176</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7392,16 +7392,16 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>9424.629858633647</v>
+        <v>9424.629858633643</v>
       </c>
       <c r="C414">
-        <v>16948.12121027473</v>
+        <v>16948.12121027474</v>
       </c>
       <c r="D414">
-        <v>41197.46428481652</v>
+        <v>41197.46428481655</v>
       </c>
       <c r="E414">
-        <v>68105.03803603623</v>
+        <v>68105.03803603626</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7409,16 +7409,16 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>8024.642213715599</v>
+        <v>8024.642213715604</v>
       </c>
       <c r="C415">
         <v>14347.42504588581</v>
       </c>
       <c r="D415">
-        <v>37516.16477283555</v>
+        <v>37516.16477283557</v>
       </c>
       <c r="E415">
-        <v>64335.39659677503</v>
+        <v>64335.39659677501</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7426,16 +7426,16 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>8024.642213715599</v>
+        <v>8024.642213715604</v>
       </c>
       <c r="C416">
         <v>14347.42504588581</v>
       </c>
       <c r="D416">
-        <v>37516.16477283555</v>
+        <v>37516.16477283557</v>
       </c>
       <c r="E416">
-        <v>64335.39659677503</v>
+        <v>64335.39659677501</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7443,16 +7443,16 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>6273.451427301152</v>
+        <v>6273.451427301151</v>
       </c>
       <c r="C417">
-        <v>10664.22685913526</v>
+        <v>10664.22685913527</v>
       </c>
       <c r="D417">
-        <v>30548.14690387411</v>
+        <v>30548.1469038741</v>
       </c>
       <c r="E417">
-        <v>54895.97553169174</v>
+        <v>54895.97553169173</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7460,16 +7460,16 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>6273.451427301152</v>
+        <v>6273.451427301151</v>
       </c>
       <c r="C418">
-        <v>10664.22685913526</v>
+        <v>10664.22685913527</v>
       </c>
       <c r="D418">
-        <v>30548.14690387411</v>
+        <v>30548.1469038741</v>
       </c>
       <c r="E418">
-        <v>54895.97553169174</v>
+        <v>54895.97553169173</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7483,10 +7483,10 @@
         <v>16372.12103740813</v>
       </c>
       <c r="D419">
-        <v>34710.87719104113</v>
+        <v>34710.87719104114</v>
       </c>
       <c r="E419">
-        <v>56848.7482417179</v>
+        <v>56848.74824171791</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7500,10 +7500,10 @@
         <v>16372.12103740813</v>
       </c>
       <c r="D420">
-        <v>34710.87719104113</v>
+        <v>34710.87719104114</v>
       </c>
       <c r="E420">
-        <v>56848.7482417179</v>
+        <v>56848.74824171791</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7514,13 +7514,13 @@
         <v>11249.20545456281</v>
       </c>
       <c r="C421">
-        <v>15907.48149161755</v>
+        <v>15907.48149161757</v>
       </c>
       <c r="D421">
         <v>33614.94841746576</v>
       </c>
       <c r="E421">
-        <v>55094.71518182196</v>
+        <v>55094.71518182191</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7531,13 +7531,13 @@
         <v>11249.20545456281</v>
       </c>
       <c r="C422">
-        <v>15907.48149161755</v>
+        <v>15907.48149161757</v>
       </c>
       <c r="D422">
         <v>33614.94841746576</v>
       </c>
       <c r="E422">
-        <v>55094.71518182196</v>
+        <v>55094.71518182191</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7551,10 +7551,10 @@
         <v>16372.12103740813</v>
       </c>
       <c r="D423">
-        <v>34710.87719104113</v>
+        <v>34710.87719104114</v>
       </c>
       <c r="E423">
-        <v>56848.7482417179</v>
+        <v>56848.74824171791</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7568,10 +7568,10 @@
         <v>16372.12103740813</v>
       </c>
       <c r="D424">
-        <v>34710.87719104113</v>
+        <v>34710.87719104114</v>
       </c>
       <c r="E424">
-        <v>56848.7482417179</v>
+        <v>56848.74824171791</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7582,13 +7582,13 @@
         <v>11249.20545456281</v>
       </c>
       <c r="C425">
-        <v>15907.48149161755</v>
+        <v>15907.48149161757</v>
       </c>
       <c r="D425">
         <v>33614.94841746576</v>
       </c>
       <c r="E425">
-        <v>55094.71518182196</v>
+        <v>55094.71518182191</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7602,10 +7602,10 @@
         <v>16372.12103740813</v>
       </c>
       <c r="D426">
-        <v>34710.87719104113</v>
+        <v>34710.87719104114</v>
       </c>
       <c r="E426">
-        <v>56848.7482417179</v>
+        <v>56848.74824171791</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7619,10 +7619,10 @@
         <v>16372.12103740813</v>
       </c>
       <c r="D427">
-        <v>34710.87719104113</v>
+        <v>34710.87719104114</v>
       </c>
       <c r="E427">
-        <v>56848.7482417179</v>
+        <v>56848.74824171791</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7636,10 +7636,10 @@
         <v>16372.12103740813</v>
       </c>
       <c r="D428">
-        <v>34710.87719104113</v>
+        <v>34710.87719104114</v>
       </c>
       <c r="E428">
-        <v>56848.7482417179</v>
+        <v>56848.74824171791</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7653,10 +7653,10 @@
         <v>16372.12103740813</v>
       </c>
       <c r="D429">
-        <v>34710.87719104113</v>
+        <v>34710.87719104114</v>
       </c>
       <c r="E429">
-        <v>56848.7482417179</v>
+        <v>56848.74824171791</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7670,10 +7670,10 @@
         <v>16372.12103740813</v>
       </c>
       <c r="D430">
-        <v>34710.87719104113</v>
+        <v>34710.87719104114</v>
       </c>
       <c r="E430">
-        <v>56848.7482417179</v>
+        <v>56848.74824171791</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7684,13 +7684,13 @@
         <v>11249.20545456281</v>
       </c>
       <c r="C431">
-        <v>15907.48149161755</v>
+        <v>15907.48149161757</v>
       </c>
       <c r="D431">
         <v>33614.94841746576</v>
       </c>
       <c r="E431">
-        <v>55094.71518182196</v>
+        <v>55094.71518182191</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7704,10 +7704,10 @@
         <v>16372.12103740813</v>
       </c>
       <c r="D432">
-        <v>34710.87719104113</v>
+        <v>34710.87719104114</v>
       </c>
       <c r="E432">
-        <v>56848.7482417179</v>
+        <v>56848.74824171791</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7721,10 +7721,10 @@
         <v>16372.12103740813</v>
       </c>
       <c r="D433">
-        <v>34710.87719104113</v>
+        <v>34710.87719104114</v>
       </c>
       <c r="E433">
-        <v>56848.7482417179</v>
+        <v>56848.74824171791</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7741,7 +7741,7 @@
         <v>28089.77961519927</v>
       </c>
       <c r="E434">
-        <v>47148.74930235899</v>
+        <v>47148.74930235896</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7755,10 +7755,10 @@
         <v>16372.12103740813</v>
       </c>
       <c r="D435">
-        <v>34710.87719104113</v>
+        <v>34710.87719104114</v>
       </c>
       <c r="E435">
-        <v>56848.7482417179</v>
+        <v>56848.74824171791</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7769,13 +7769,13 @@
         <v>7199.699470407319</v>
       </c>
       <c r="C436">
-        <v>11618.48043212599</v>
+        <v>11618.48043212598</v>
       </c>
       <c r="D436">
-        <v>28275.91821446036</v>
+        <v>28275.91821446039</v>
       </c>
       <c r="E436">
-        <v>47911.1019292191</v>
+        <v>47911.10192921912</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7783,10 +7783,10 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>5783.853684146539</v>
+        <v>5783.853684146538</v>
       </c>
       <c r="C437">
-        <v>9222.809738415875</v>
+        <v>9222.809738415874</v>
       </c>
       <c r="D437">
         <v>23155.3348285441</v>
@@ -7800,10 +7800,10 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>5783.853684146539</v>
+        <v>5783.853684146538</v>
       </c>
       <c r="C438">
-        <v>9222.809738415875</v>
+        <v>9222.809738415874</v>
       </c>
       <c r="D438">
         <v>23155.3348285441</v>
@@ -7817,10 +7817,10 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>5783.853684146539</v>
+        <v>5783.853684146538</v>
       </c>
       <c r="C439">
-        <v>9222.809738415875</v>
+        <v>9222.809738415874</v>
       </c>
       <c r="D439">
         <v>23155.3348285441</v>
@@ -7834,10 +7834,10 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>5783.853684146539</v>
+        <v>5783.853684146538</v>
       </c>
       <c r="C440">
-        <v>9222.809738415875</v>
+        <v>9222.809738415874</v>
       </c>
       <c r="D440">
         <v>23155.3348285441</v>
@@ -7851,10 +7851,10 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>5783.853684146539</v>
+        <v>5783.853684146538</v>
       </c>
       <c r="C441">
-        <v>9222.809738415875</v>
+        <v>9222.809738415874</v>
       </c>
       <c r="D441">
         <v>23155.3348285441</v>
@@ -7868,10 +7868,10 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>5783.853684146539</v>
+        <v>5783.853684146538</v>
       </c>
       <c r="C442">
-        <v>9222.809738415875</v>
+        <v>9222.809738415874</v>
       </c>
       <c r="D442">
         <v>23155.3348285441</v>
@@ -7885,10 +7885,10 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>5783.853684146539</v>
+        <v>5783.853684146538</v>
       </c>
       <c r="C443">
-        <v>9222.809738415875</v>
+        <v>9222.809738415874</v>
       </c>
       <c r="D443">
         <v>23155.3348285441</v>
@@ -7902,10 +7902,10 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>5783.853684146539</v>
+        <v>5783.853684146538</v>
       </c>
       <c r="C444">
-        <v>9222.809738415875</v>
+        <v>9222.809738415874</v>
       </c>
       <c r="D444">
         <v>23155.3348285441</v>
@@ -7919,10 +7919,10 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>5783.853684146539</v>
+        <v>5783.853684146538</v>
       </c>
       <c r="C445">
-        <v>9222.809738415875</v>
+        <v>9222.809738415874</v>
       </c>
       <c r="D445">
         <v>23155.3348285441</v>
@@ -7936,10 +7936,10 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>5783.853684146539</v>
+        <v>5783.853684146538</v>
       </c>
       <c r="C446">
-        <v>9222.809738415875</v>
+        <v>9222.809738415874</v>
       </c>
       <c r="D446">
         <v>23155.3348285441</v>
@@ -7953,10 +7953,10 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>5783.853684146539</v>
+        <v>5783.853684146538</v>
       </c>
       <c r="C447">
-        <v>9222.809738415875</v>
+        <v>9222.809738415874</v>
       </c>
       <c r="D447">
         <v>23155.3348285441</v>
@@ -7970,16 +7970,16 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>20236.05437999446</v>
+        <v>20236.05437999445</v>
       </c>
       <c r="C448">
-        <v>24433.39939086661</v>
+        <v>24433.3993908666</v>
       </c>
       <c r="D448">
-        <v>42161.80308465022</v>
+        <v>42161.80308465024</v>
       </c>
       <c r="E448">
-        <v>64212.57750056292</v>
+        <v>64212.57750056293</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7987,16 +7987,16 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>20236.05437999446</v>
+        <v>20236.05437999445</v>
       </c>
       <c r="C449">
-        <v>24433.39939086661</v>
+        <v>24433.3993908666</v>
       </c>
       <c r="D449">
-        <v>42161.80308465022</v>
+        <v>42161.80308465024</v>
       </c>
       <c r="E449">
-        <v>64212.57750056292</v>
+        <v>64212.57750056293</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8004,16 +8004,16 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>20236.05437999446</v>
+        <v>20236.05437999445</v>
       </c>
       <c r="C450">
-        <v>24433.39939086661</v>
+        <v>24433.3993908666</v>
       </c>
       <c r="D450">
-        <v>42161.80308465022</v>
+        <v>42161.80308465024</v>
       </c>
       <c r="E450">
-        <v>64212.57750056292</v>
+        <v>64212.57750056293</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8021,16 +8021,16 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>20236.05437999446</v>
+        <v>20236.05437999445</v>
       </c>
       <c r="C451">
-        <v>24433.39939086661</v>
+        <v>24433.3993908666</v>
       </c>
       <c r="D451">
-        <v>42161.80308465022</v>
+        <v>42161.80308465024</v>
       </c>
       <c r="E451">
-        <v>64212.57750056292</v>
+        <v>64212.57750056293</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8038,16 +8038,16 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>20236.05437999446</v>
+        <v>20236.05437999445</v>
       </c>
       <c r="C452">
-        <v>24433.39939086661</v>
+        <v>24433.3993908666</v>
       </c>
       <c r="D452">
-        <v>42161.80308465022</v>
+        <v>42161.80308465024</v>
       </c>
       <c r="E452">
-        <v>64212.57750056292</v>
+        <v>64212.57750056293</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8055,16 +8055,16 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>20236.05437999446</v>
+        <v>20236.05437999445</v>
       </c>
       <c r="C453">
-        <v>24433.39939086661</v>
+        <v>24433.3993908666</v>
       </c>
       <c r="D453">
-        <v>42161.80308465022</v>
+        <v>42161.80308465024</v>
       </c>
       <c r="E453">
-        <v>64212.57750056292</v>
+        <v>64212.57750056293</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8081,7 +8081,7 @@
         <v>37753.50085034697</v>
       </c>
       <c r="E454">
-        <v>60159.5051833657</v>
+        <v>60159.50518336569</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8098,7 +8098,7 @@
         <v>37753.50085034697</v>
       </c>
       <c r="E455">
-        <v>60159.5051833657</v>
+        <v>60159.50518336569</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8115,7 +8115,7 @@
         <v>37753.50085034697</v>
       </c>
       <c r="E456">
-        <v>60159.5051833657</v>
+        <v>60159.50518336569</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8132,7 +8132,7 @@
         <v>37753.50085034697</v>
       </c>
       <c r="E457">
-        <v>60159.5051833657</v>
+        <v>60159.50518336569</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8149,7 +8149,7 @@
         <v>37753.50085034697</v>
       </c>
       <c r="E458">
-        <v>60159.5051833657</v>
+        <v>60159.50518336569</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8166,7 +8166,7 @@
         <v>37753.50085034697</v>
       </c>
       <c r="E459">
-        <v>60159.5051833657</v>
+        <v>60159.50518336569</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8183,7 +8183,7 @@
         <v>37753.50085034697</v>
       </c>
       <c r="E460">
-        <v>60159.5051833657</v>
+        <v>60159.50518336569</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -8200,7 +8200,7 @@
         <v>37753.50085034697</v>
       </c>
       <c r="E461">
-        <v>60159.5051833657</v>
+        <v>60159.50518336569</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8217,7 +8217,7 @@
         <v>37753.50085034697</v>
       </c>
       <c r="E462">
-        <v>60159.5051833657</v>
+        <v>60159.50518336569</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8231,10 +8231,10 @@
         <v>16372.12103740813</v>
       </c>
       <c r="D463">
-        <v>34710.87719104113</v>
+        <v>34710.87719104114</v>
       </c>
       <c r="E463">
-        <v>56848.7482417179</v>
+        <v>56848.74824171791</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8248,10 +8248,10 @@
         <v>16372.12103740813</v>
       </c>
       <c r="D464">
-        <v>34710.87719104113</v>
+        <v>34710.87719104114</v>
       </c>
       <c r="E464">
-        <v>56848.7482417179</v>
+        <v>56848.74824171791</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8268,7 +8268,7 @@
         <v>28089.77961519927</v>
       </c>
       <c r="E465">
-        <v>47148.74930235899</v>
+        <v>47148.74930235896</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8285,7 +8285,7 @@
         <v>28089.77961519927</v>
       </c>
       <c r="E466">
-        <v>47148.74930235899</v>
+        <v>47148.74930235896</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8299,10 +8299,10 @@
         <v>16372.12103740813</v>
       </c>
       <c r="D467">
-        <v>34710.87719104113</v>
+        <v>34710.87719104114</v>
       </c>
       <c r="E467">
-        <v>56848.7482417179</v>
+        <v>56848.74824171791</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8310,16 +8310,16 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>20236.05437999446</v>
+        <v>20236.05437999445</v>
       </c>
       <c r="C468">
-        <v>24433.39939086661</v>
+        <v>24433.3993908666</v>
       </c>
       <c r="D468">
-        <v>42161.80308465022</v>
+        <v>42161.80308465024</v>
       </c>
       <c r="E468">
-        <v>64212.57750056292</v>
+        <v>64212.57750056293</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8327,16 +8327,16 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>20236.05437999446</v>
+        <v>20236.05437999445</v>
       </c>
       <c r="C469">
-        <v>24433.39939086661</v>
+        <v>24433.3993908666</v>
       </c>
       <c r="D469">
-        <v>42161.80308465022</v>
+        <v>42161.80308465024</v>
       </c>
       <c r="E469">
-        <v>64212.57750056292</v>
+        <v>64212.57750056293</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8344,16 +8344,16 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>20236.05437999446</v>
+        <v>20236.05437999445</v>
       </c>
       <c r="C470">
-        <v>24433.39939086661</v>
+        <v>24433.3993908666</v>
       </c>
       <c r="D470">
-        <v>42161.80308465022</v>
+        <v>42161.80308465024</v>
       </c>
       <c r="E470">
-        <v>64212.57750056292</v>
+        <v>64212.57750056293</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8367,10 +8367,10 @@
         <v>16372.12103740813</v>
       </c>
       <c r="D471">
-        <v>34710.87719104113</v>
+        <v>34710.87719104114</v>
       </c>
       <c r="E471">
-        <v>56848.7482417179</v>
+        <v>56848.74824171791</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8387,7 +8387,7 @@
         <v>37753.50085034697</v>
       </c>
       <c r="E472">
-        <v>60159.5051833657</v>
+        <v>60159.50518336569</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8404,7 +8404,7 @@
         <v>28089.77961519927</v>
       </c>
       <c r="E473">
-        <v>47148.74930235899</v>
+        <v>47148.74930235896</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8421,7 +8421,7 @@
         <v>28089.77961519927</v>
       </c>
       <c r="E474">
-        <v>47148.74930235899</v>
+        <v>47148.74930235896</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8432,13 +8432,13 @@
         <v>7199.699470407319</v>
       </c>
       <c r="C475">
-        <v>11618.48043212599</v>
+        <v>11618.48043212598</v>
       </c>
       <c r="D475">
-        <v>28275.91821446036</v>
+        <v>28275.91821446039</v>
       </c>
       <c r="E475">
-        <v>47911.1019292191</v>
+        <v>47911.10192921912</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8446,16 +8446,16 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>7477.116484441983</v>
+        <v>7477.116484441981</v>
       </c>
       <c r="C476">
-        <v>11460.40908041896</v>
+        <v>11460.40908041897</v>
       </c>
       <c r="D476">
-        <v>27642.16669289647</v>
+        <v>27642.16669289646</v>
       </c>
       <c r="E476">
-        <v>46711.48163835072</v>
+        <v>46711.48163835068</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8463,16 +8463,16 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>7477.116484441983</v>
+        <v>7477.116484441981</v>
       </c>
       <c r="C477">
-        <v>11460.40908041896</v>
+        <v>11460.40908041897</v>
       </c>
       <c r="D477">
-        <v>27642.16669289647</v>
+        <v>27642.16669289646</v>
       </c>
       <c r="E477">
-        <v>46711.48163835072</v>
+        <v>46711.48163835068</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8480,7 +8480,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>8508.103516592173</v>
+        <v>8508.103516592177</v>
       </c>
       <c r="C478">
         <v>12937.55112901983</v>
@@ -8489,7 +8489,7 @@
         <v>30583.32909004577</v>
       </c>
       <c r="E478">
-        <v>52155.58320806081</v>
+        <v>52155.58320806084</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8497,7 +8497,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>7479.590600692527</v>
+        <v>7479.59060069253</v>
       </c>
       <c r="C479">
         <v>11680.62492825708</v>
@@ -8506,7 +8506,7 @@
         <v>28712.38850156453</v>
       </c>
       <c r="E479">
-        <v>49627.95382498036</v>
+        <v>49627.95382498037</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8520,10 +8520,10 @@
         <v>13326.79610963886</v>
       </c>
       <c r="D480">
-        <v>31626.67369616771</v>
+        <v>31626.67369616772</v>
       </c>
       <c r="E480">
-        <v>53909.38498754474</v>
+        <v>53909.38498754472</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8531,7 +8531,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>8508.103516592173</v>
+        <v>8508.103516592177</v>
       </c>
       <c r="C481">
         <v>12937.55112901983</v>
@@ -8540,7 +8540,7 @@
         <v>30583.32909004577</v>
       </c>
       <c r="E481">
-        <v>52155.58320806081</v>
+        <v>52155.58320806084</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8548,7 +8548,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>8508.103516592173</v>
+        <v>8508.103516592177</v>
       </c>
       <c r="C482">
         <v>12937.55112901983</v>
@@ -8557,7 +8557,7 @@
         <v>30583.32909004577</v>
       </c>
       <c r="E482">
-        <v>52155.58320806081</v>
+        <v>52155.58320806084</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8565,7 +8565,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>8508.103516592173</v>
+        <v>8508.103516592177</v>
       </c>
       <c r="C483">
         <v>12937.55112901983</v>
@@ -8574,7 +8574,7 @@
         <v>30583.32909004577</v>
       </c>
       <c r="E483">
-        <v>52155.58320806081</v>
+        <v>52155.58320806084</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8582,7 +8582,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>8508.103516592173</v>
+        <v>8508.103516592177</v>
       </c>
       <c r="C484">
         <v>12937.55112901983</v>
@@ -8591,7 +8591,7 @@
         <v>30583.32909004577</v>
       </c>
       <c r="E484">
-        <v>52155.58320806081</v>
+        <v>52155.58320806084</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8605,10 +8605,10 @@
         <v>13326.79610963886</v>
       </c>
       <c r="D485">
-        <v>31626.67369616771</v>
+        <v>31626.67369616772</v>
       </c>
       <c r="E485">
-        <v>53909.38498754474</v>
+        <v>53909.38498754472</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8616,7 +8616,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>8156.086962486148</v>
+        <v>8156.086962486153</v>
       </c>
       <c r="C486">
         <v>12728.63381703393</v>
@@ -8642,7 +8642,7 @@
         <v>28493.5796948084</v>
       </c>
       <c r="E487">
-        <v>48608.17925168144</v>
+        <v>48608.17925168139</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8650,16 +8650,16 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>8504.102180816886</v>
+        <v>8504.102180816884</v>
       </c>
       <c r="C488">
         <v>12784.93618108576</v>
       </c>
       <c r="D488">
-        <v>29448.69372720717</v>
+        <v>29448.69372720719</v>
       </c>
       <c r="E488">
-        <v>49657.88231229171</v>
+        <v>49657.88231229169</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8667,16 +8667,16 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>8504.102180816886</v>
+        <v>8504.102180816884</v>
       </c>
       <c r="C489">
         <v>12784.93618108576</v>
       </c>
       <c r="D489">
-        <v>29448.69372720717</v>
+        <v>29448.69372720719</v>
       </c>
       <c r="E489">
-        <v>49657.88231229171</v>
+        <v>49657.88231229169</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8687,7 +8687,7 @@
         <v>11522.55040698058</v>
       </c>
       <c r="C490">
-        <v>17920.70419062901</v>
+        <v>17920.704190629</v>
       </c>
       <c r="D490">
         <v>39360.87402109485</v>
@@ -8704,7 +8704,7 @@
         <v>11522.55040698058</v>
       </c>
       <c r="C491">
-        <v>17920.70419062901</v>
+        <v>17920.704190629</v>
       </c>
       <c r="D491">
         <v>39360.87402109485</v>
@@ -8721,7 +8721,7 @@
         <v>11522.55040698058</v>
       </c>
       <c r="C492">
-        <v>17920.70419062901</v>
+        <v>17920.704190629</v>
       </c>
       <c r="D492">
         <v>39360.87402109485</v>
@@ -8738,7 +8738,7 @@
         <v>11522.55040698058</v>
       </c>
       <c r="C493">
-        <v>17920.70419062901</v>
+        <v>17920.704190629</v>
       </c>
       <c r="D493">
         <v>39360.87402109485</v>
@@ -8755,7 +8755,7 @@
         <v>11522.55040698058</v>
       </c>
       <c r="C494">
-        <v>17920.70419062901</v>
+        <v>17920.704190629</v>
       </c>
       <c r="D494">
         <v>39360.87402109485</v>
@@ -8769,16 +8769,16 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>10403.07553226828</v>
+        <v>10403.07553226829</v>
       </c>
       <c r="C495">
         <v>18018.63037611965</v>
       </c>
       <c r="D495">
-        <v>40974.31361238902</v>
+        <v>40974.31361238904</v>
       </c>
       <c r="E495">
-        <v>66567.9269994865</v>
+        <v>66567.92699948652</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8792,7 +8792,7 @@
         <v>19854.60003260947</v>
       </c>
       <c r="D496">
-        <v>43060.19327637962</v>
+        <v>43060.19327637964</v>
       </c>
       <c r="E496">
         <v>68730.98562970154</v>
@@ -8803,16 +8803,16 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>10403.07553226828</v>
+        <v>10403.07553226829</v>
       </c>
       <c r="C497">
         <v>18018.63037611965</v>
       </c>
       <c r="D497">
-        <v>40974.31361238902</v>
+        <v>40974.31361238904</v>
       </c>
       <c r="E497">
-        <v>66567.9269994865</v>
+        <v>66567.92699948652</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8823,13 +8823,13 @@
         <v>13841.09499621638</v>
       </c>
       <c r="C498">
-        <v>20143.24802768409</v>
+        <v>20143.2480276841</v>
       </c>
       <c r="D498">
         <v>39938.66748601318</v>
       </c>
       <c r="E498">
-        <v>62878.13066076217</v>
+        <v>62878.13066076219</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8840,13 +8840,13 @@
         <v>13841.09499621638</v>
       </c>
       <c r="C499">
-        <v>20143.24802768409</v>
+        <v>20143.2480276841</v>
       </c>
       <c r="D499">
         <v>39938.66748601318</v>
       </c>
       <c r="E499">
-        <v>62878.13066076217</v>
+        <v>62878.13066076219</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8857,13 +8857,13 @@
         <v>13841.09499621638</v>
       </c>
       <c r="C500">
-        <v>20143.24802768409</v>
+        <v>20143.2480276841</v>
       </c>
       <c r="D500">
         <v>39938.66748601318</v>
       </c>
       <c r="E500">
-        <v>62878.13066076217</v>
+        <v>62878.13066076219</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8871,10 +8871,10 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>10201.67500968552</v>
+        <v>10201.67500968553</v>
       </c>
       <c r="C501">
-        <v>14483.29925572996</v>
+        <v>14483.29925572995</v>
       </c>
       <c r="D501">
         <v>31117.23465767225</v>
